--- a/Whale_Gosth/TableaudesLongueursLED poids puissances (version 2).xlsb.xlsx
+++ b/Whale_Gosth/TableaudesLongueursLED poids puissances (version 2).xlsb.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D O C\Mes Docs\DOSSIER\Pitaya\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\GitHub\PITAYA\Whale_Gosth\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,12 +16,11 @@
     <sheet name="30 led" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="52">
   <si>
     <t>Segment A</t>
   </si>
@@ -156,6 +155,27 @@
   </si>
   <si>
     <t>poids 4 fils +gaine</t>
+  </si>
+  <si>
+    <t>25m</t>
+  </si>
+  <si>
+    <t>4G4</t>
+  </si>
+  <si>
+    <t>35m</t>
+  </si>
+  <si>
+    <t>2x4</t>
+  </si>
+  <si>
+    <t>HT</t>
+  </si>
+  <si>
+    <t>100m</t>
+  </si>
+  <si>
+    <t>1x4</t>
   </si>
 </sst>
 </file>
@@ -666,13 +686,30 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -681,10 +718,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -705,22 +739,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
@@ -729,11 +751,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1112,15 +1132,15 @@
       <c r="M2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="44" t="s">
+      <c r="N2" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="45"/>
-      <c r="P2" s="44" t="s">
+      <c r="O2" s="51"/>
+      <c r="P2" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="45"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="51"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1201,7 +1221,7 @@
         <v>1272</v>
       </c>
       <c r="E4" s="14"/>
-      <c r="F4" s="34">
+      <c r="F4" s="38">
         <v>1</v>
       </c>
       <c r="G4" s="11">
@@ -1213,34 +1233,34 @@
       <c r="I4" s="11">
         <v>3.6633599999999999</v>
       </c>
-      <c r="J4" s="34">
+      <c r="J4" s="38">
         <v>13.409280000000001</v>
       </c>
-      <c r="K4" s="34">
+      <c r="K4" s="38">
         <f>SUM(J4*0.26)</f>
         <v>3.4864128000000005</v>
       </c>
-      <c r="L4" s="34">
+      <c r="L4" s="38">
         <v>2</v>
       </c>
-      <c r="M4" s="48">
+      <c r="M4" s="42">
         <v>15.8</v>
       </c>
-      <c r="N4" s="37">
+      <c r="N4" s="44">
         <v>2.5</v>
       </c>
-      <c r="O4" s="41">
+      <c r="O4" s="47">
         <f>SUM(M4-10) *23.38</f>
         <v>135.60400000000001</v>
       </c>
-      <c r="P4" s="37">
+      <c r="P4" s="44">
         <v>1</v>
       </c>
-      <c r="Q4" s="34">
+      <c r="Q4" s="38">
         <f>SUM((M4-10)*9.35)</f>
         <v>54.230000000000004</v>
       </c>
-      <c r="R4" s="41">
+      <c r="R4" s="47">
         <f>SUM(Q4*L4)</f>
         <v>108.46000000000001</v>
       </c>
@@ -1273,7 +1293,7 @@
         <v>1556</v>
       </c>
       <c r="E5" s="14"/>
-      <c r="F5" s="34"/>
+      <c r="F5" s="38"/>
       <c r="G5" s="11">
         <v>93</v>
       </c>
@@ -1283,15 +1303,15 @@
       <c r="I5" s="11">
         <v>4.4812799999999999</v>
       </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="41"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="47"/>
       <c r="S5" s="10"/>
       <c r="T5" s="11">
         <f t="shared" si="0"/>
@@ -1321,7 +1341,7 @@
         <v>1828</v>
       </c>
       <c r="E6" s="14"/>
-      <c r="F6" s="40"/>
+      <c r="F6" s="39"/>
       <c r="G6" s="16">
         <v>110</v>
       </c>
@@ -1331,15 +1351,15 @@
       <c r="I6" s="16">
         <v>5.26464</v>
       </c>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="42"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="48"/>
       <c r="S6" s="10"/>
       <c r="T6" s="16">
         <f t="shared" si="0"/>
@@ -1369,7 +1389,7 @@
         <v>2084</v>
       </c>
       <c r="E7" s="14"/>
-      <c r="F7" s="39">
+      <c r="F7" s="40">
         <v>2</v>
       </c>
       <c r="G7" s="17">
@@ -1381,34 +1401,34 @@
       <c r="I7" s="17">
         <v>6.0019200000000001</v>
       </c>
-      <c r="J7" s="39">
+      <c r="J7" s="40">
         <v>20.079360000000001</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="38">
         <f>SUM(J7*0.26)</f>
         <v>5.2206336000000002</v>
       </c>
-      <c r="L7" s="39">
+      <c r="L7" s="40">
         <v>3</v>
       </c>
-      <c r="M7" s="47">
+      <c r="M7" s="41">
         <v>17</v>
       </c>
-      <c r="N7" s="36">
+      <c r="N7" s="46">
         <v>4</v>
       </c>
-      <c r="O7" s="41">
+      <c r="O7" s="47">
         <f>SUM(M7-10) *37.4</f>
         <v>261.8</v>
       </c>
-      <c r="P7" s="36">
+      <c r="P7" s="46">
         <v>1</v>
       </c>
-      <c r="Q7" s="34">
+      <c r="Q7" s="38">
         <f>SUM((M7-10)*9.35)</f>
         <v>65.45</v>
       </c>
-      <c r="R7" s="41">
+      <c r="R7" s="47">
         <f>SUM(Q7*L7)</f>
         <v>196.35000000000002</v>
       </c>
@@ -1441,7 +1461,7 @@
         <v>2328</v>
       </c>
       <c r="E8" s="14"/>
-      <c r="F8" s="34"/>
+      <c r="F8" s="38"/>
       <c r="G8" s="11">
         <v>140</v>
       </c>
@@ -1451,15 +1471,15 @@
       <c r="I8" s="11">
         <v>6.7046400000000004</v>
       </c>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="41"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="47"/>
       <c r="S8" s="10"/>
       <c r="T8" s="11">
         <f t="shared" si="0"/>
@@ -1489,7 +1509,7 @@
         <v>2560</v>
       </c>
       <c r="E9" s="14"/>
-      <c r="F9" s="40"/>
+      <c r="F9" s="39"/>
       <c r="G9" s="16">
         <v>154</v>
       </c>
@@ -1499,15 +1519,15 @@
       <c r="I9" s="16">
         <v>7.3727999999999998</v>
       </c>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="42"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="48"/>
       <c r="S9" s="10"/>
       <c r="T9" s="16">
         <f t="shared" si="0"/>
@@ -1537,7 +1557,7 @@
         <v>2780</v>
       </c>
       <c r="E10" s="14"/>
-      <c r="F10" s="39">
+      <c r="F10" s="40">
         <v>3</v>
       </c>
       <c r="G10" s="17">
@@ -1549,34 +1569,34 @@
       <c r="I10" s="17">
         <v>8.0063999999999993</v>
       </c>
-      <c r="J10" s="39">
+      <c r="J10" s="40">
         <v>25.724160000000001</v>
       </c>
-      <c r="K10" s="34">
+      <c r="K10" s="38">
         <f>SUM(J10*0.26)</f>
         <v>6.6882816000000007</v>
       </c>
-      <c r="L10" s="39">
+      <c r="L10" s="40">
         <v>3</v>
       </c>
-      <c r="M10" s="47">
+      <c r="M10" s="41">
         <v>18.2</v>
       </c>
-      <c r="N10" s="36">
+      <c r="N10" s="46">
         <v>6</v>
       </c>
-      <c r="O10" s="41">
+      <c r="O10" s="47">
         <f>SUM(M10-10) *56.1</f>
         <v>460.02</v>
       </c>
-      <c r="P10" s="36">
+      <c r="P10" s="46">
         <v>1.5</v>
       </c>
-      <c r="Q10" s="34">
+      <c r="Q10" s="38">
         <f>SUM((M10-10)*14.02)</f>
         <v>114.96399999999998</v>
       </c>
-      <c r="R10" s="41">
+      <c r="R10" s="47">
         <f>SUM(Q10*L10)</f>
         <v>344.89199999999994</v>
       </c>
@@ -1609,7 +1629,7 @@
         <v>2984</v>
       </c>
       <c r="E11" s="14"/>
-      <c r="F11" s="34"/>
+      <c r="F11" s="38"/>
       <c r="G11" s="11">
         <v>179</v>
       </c>
@@ -1619,15 +1639,15 @@
       <c r="I11" s="11">
         <v>8.5939200000000007</v>
       </c>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="41"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="47"/>
       <c r="S11" s="10"/>
       <c r="T11" s="11">
         <f t="shared" si="0"/>
@@ -1657,7 +1677,7 @@
         <v>3168</v>
       </c>
       <c r="E12" s="14"/>
-      <c r="F12" s="40"/>
+      <c r="F12" s="39"/>
       <c r="G12" s="16">
         <v>190</v>
       </c>
@@ -1667,15 +1687,15 @@
       <c r="I12" s="16">
         <v>9.1238399999999995</v>
       </c>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="42"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="48"/>
       <c r="S12" s="10"/>
       <c r="T12" s="16">
         <f t="shared" si="0"/>
@@ -1705,7 +1725,7 @@
         <v>3328</v>
       </c>
       <c r="E13" s="14"/>
-      <c r="F13" s="39">
+      <c r="F13" s="40">
         <v>4</v>
       </c>
       <c r="G13" s="17">
@@ -1717,34 +1737,34 @@
       <c r="I13" s="17">
         <v>9.5846400000000003</v>
       </c>
-      <c r="J13" s="39">
+      <c r="J13" s="40">
         <v>29.68704</v>
       </c>
-      <c r="K13" s="34">
+      <c r="K13" s="38">
         <f>SUM(J13*0.26)</f>
         <v>7.7186304000000003</v>
       </c>
-      <c r="L13" s="39">
+      <c r="L13" s="40">
         <v>4</v>
       </c>
-      <c r="M13" s="47">
+      <c r="M13" s="41">
         <v>19.399999999999999</v>
       </c>
-      <c r="N13" s="36">
+      <c r="N13" s="46">
         <v>6</v>
       </c>
-      <c r="O13" s="41">
+      <c r="O13" s="47">
         <f>SUM(M13-10) *56.1</f>
         <v>527.33999999999992</v>
       </c>
-      <c r="P13" s="36">
+      <c r="P13" s="46">
         <v>1.5</v>
       </c>
-      <c r="Q13" s="34">
+      <c r="Q13" s="38">
         <f>SUM((M13-10)*14.02)</f>
         <v>131.78799999999998</v>
       </c>
-      <c r="R13" s="41">
+      <c r="R13" s="47">
         <f>SUM(Q13*L13)</f>
         <v>527.15199999999993</v>
       </c>
@@ -1777,7 +1797,7 @@
         <v>3456</v>
       </c>
       <c r="E14" s="14"/>
-      <c r="F14" s="34"/>
+      <c r="F14" s="38"/>
       <c r="G14" s="11">
         <v>207</v>
       </c>
@@ -1787,15 +1807,15 @@
       <c r="I14" s="11">
         <v>9.9532799999999995</v>
       </c>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="41"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="47"/>
       <c r="S14" s="10"/>
       <c r="T14" s="11">
         <f t="shared" si="0"/>
@@ -1825,7 +1845,7 @@
         <v>3524</v>
       </c>
       <c r="E15" s="14"/>
-      <c r="F15" s="40"/>
+      <c r="F15" s="39"/>
       <c r="G15" s="16">
         <v>211</v>
       </c>
@@ -1835,15 +1855,15 @@
       <c r="I15" s="16">
         <v>10.14912</v>
       </c>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="42"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="48"/>
       <c r="S15" s="10"/>
       <c r="T15" s="16">
         <f t="shared" si="0"/>
@@ -1873,7 +1893,7 @@
         <v>3504</v>
       </c>
       <c r="E16" s="14"/>
-      <c r="F16" s="39">
+      <c r="F16" s="40">
         <v>5</v>
       </c>
       <c r="G16" s="17">
@@ -1885,34 +1905,34 @@
       <c r="I16" s="17">
         <v>10.091519999999999</v>
       </c>
-      <c r="J16" s="39">
+      <c r="J16" s="40">
         <v>29.698560000000001</v>
       </c>
-      <c r="K16" s="34">
+      <c r="K16" s="38">
         <f>SUM(J16*0.26)</f>
         <v>7.7216256000000003</v>
       </c>
-      <c r="L16" s="39">
+      <c r="L16" s="40">
         <v>4</v>
       </c>
-      <c r="M16" s="47">
+      <c r="M16" s="41">
         <v>20.6</v>
       </c>
-      <c r="N16" s="36">
+      <c r="N16" s="46">
         <v>6</v>
       </c>
-      <c r="O16" s="41">
+      <c r="O16" s="47">
         <f>SUM(M16-10) *56.1</f>
         <v>594.66000000000008</v>
       </c>
-      <c r="P16" s="36">
+      <c r="P16" s="46">
         <v>1.5</v>
       </c>
-      <c r="Q16" s="34">
+      <c r="Q16" s="38">
         <f>SUM((M16-10)*14.02)</f>
         <v>148.61200000000002</v>
       </c>
-      <c r="R16" s="41">
+      <c r="R16" s="47">
         <f>SUM(Q16*L16)</f>
         <v>594.44800000000009</v>
       </c>
@@ -1945,7 +1965,7 @@
         <v>3444</v>
       </c>
       <c r="E17" s="14"/>
-      <c r="F17" s="34"/>
+      <c r="F17" s="38"/>
       <c r="G17" s="11">
         <v>207</v>
       </c>
@@ -1955,15 +1975,15 @@
       <c r="I17" s="11">
         <v>9.9187200000000004</v>
       </c>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="41"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="47"/>
       <c r="S17" s="10"/>
       <c r="T17" s="11">
         <f t="shared" si="0"/>
@@ -1993,7 +2013,7 @@
         <v>3364</v>
       </c>
       <c r="E18" s="14"/>
-      <c r="F18" s="40"/>
+      <c r="F18" s="39"/>
       <c r="G18" s="16">
         <v>202</v>
       </c>
@@ -2003,15 +2023,15 @@
       <c r="I18" s="16">
         <v>9.6883199999999992</v>
       </c>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="42"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="48"/>
       <c r="S18" s="10"/>
       <c r="T18" s="16">
         <f t="shared" si="0"/>
@@ -2041,7 +2061,7 @@
         <v>3264</v>
       </c>
       <c r="E19" s="14"/>
-      <c r="F19" s="39">
+      <c r="F19" s="40">
         <v>6</v>
       </c>
       <c r="G19" s="17">
@@ -2053,34 +2073,34 @@
       <c r="I19" s="17">
         <v>9.4003200000000007</v>
       </c>
-      <c r="J19" s="39">
+      <c r="J19" s="40">
         <v>27.164159999999999</v>
       </c>
-      <c r="K19" s="34">
+      <c r="K19" s="38">
         <f>SUM(J19*0.26)</f>
         <v>7.0626816000000003</v>
       </c>
-      <c r="L19" s="39">
+      <c r="L19" s="40">
         <v>3</v>
       </c>
-      <c r="M19" s="47">
+      <c r="M19" s="41">
         <v>21.8</v>
       </c>
-      <c r="N19" s="36">
+      <c r="N19" s="46">
         <v>6</v>
       </c>
-      <c r="O19" s="41">
+      <c r="O19" s="47">
         <f>SUM(M19-10) *56.1</f>
         <v>661.98</v>
       </c>
-      <c r="P19" s="36">
+      <c r="P19" s="46">
         <v>2.5</v>
       </c>
-      <c r="Q19" s="34">
+      <c r="Q19" s="38">
         <f>SUM((M19-10)*23.38)</f>
         <v>275.88400000000001</v>
       </c>
-      <c r="R19" s="41">
+      <c r="R19" s="47">
         <f>SUM(Q19*L19)</f>
         <v>827.65200000000004</v>
       </c>
@@ -2113,7 +2133,7 @@
         <v>3148</v>
       </c>
       <c r="E20" s="14"/>
-      <c r="F20" s="34"/>
+      <c r="F20" s="38"/>
       <c r="G20" s="11">
         <v>189</v>
       </c>
@@ -2123,15 +2143,15 @@
       <c r="I20" s="11">
         <v>9.0662400000000005</v>
       </c>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="41"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="47"/>
       <c r="S20" s="10"/>
       <c r="T20" s="11">
         <f t="shared" si="0"/>
@@ -2161,7 +2181,7 @@
         <v>3020</v>
       </c>
       <c r="E21" s="14"/>
-      <c r="F21" s="40"/>
+      <c r="F21" s="39"/>
       <c r="G21" s="16">
         <v>181</v>
       </c>
@@ -2171,15 +2191,15 @@
       <c r="I21" s="16">
         <v>8.6975999999999996</v>
       </c>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="42"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="48"/>
       <c r="S21" s="10"/>
       <c r="T21" s="16">
         <f t="shared" si="0"/>
@@ -2209,7 +2229,7 @@
         <v>2884</v>
       </c>
       <c r="E22" s="14"/>
-      <c r="F22" s="39">
+      <c r="F22" s="40">
         <v>7</v>
       </c>
       <c r="G22" s="17">
@@ -2221,34 +2241,34 @@
       <c r="I22" s="17">
         <v>8.3059200000000004</v>
       </c>
-      <c r="J22" s="39">
+      <c r="J22" s="40">
         <v>23.650559999999999</v>
       </c>
-      <c r="K22" s="34">
+      <c r="K22" s="38">
         <f>SUM(J22*0.26)</f>
         <v>6.1491455999999998</v>
       </c>
-      <c r="L22" s="39">
+      <c r="L22" s="40">
         <v>3</v>
       </c>
-      <c r="M22" s="47">
+      <c r="M22" s="41">
         <v>23</v>
       </c>
-      <c r="N22" s="36">
+      <c r="N22" s="46">
         <v>6</v>
       </c>
-      <c r="O22" s="41">
+      <c r="O22" s="47">
         <f>SUM(M22-10) *56.1</f>
         <v>729.30000000000007</v>
       </c>
-      <c r="P22" s="36">
+      <c r="P22" s="46">
         <v>2.5</v>
       </c>
-      <c r="Q22" s="34">
+      <c r="Q22" s="38">
         <f>SUM((M22-10)*23.38)</f>
         <v>303.94</v>
       </c>
-      <c r="R22" s="41">
+      <c r="R22" s="47">
         <f>SUM(Q22*L22)</f>
         <v>911.81999999999994</v>
       </c>
@@ -2281,7 +2301,7 @@
         <v>2740</v>
       </c>
       <c r="E23" s="14"/>
-      <c r="F23" s="34"/>
+      <c r="F23" s="38"/>
       <c r="G23" s="11">
         <v>164</v>
       </c>
@@ -2291,15 +2311,15 @@
       <c r="I23" s="11">
         <v>7.8912000000000004</v>
       </c>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="41"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="47"/>
       <c r="S23" s="10"/>
       <c r="T23" s="11">
         <f t="shared" si="0"/>
@@ -2329,7 +2349,7 @@
         <v>2588</v>
       </c>
       <c r="E24" s="14"/>
-      <c r="F24" s="40"/>
+      <c r="F24" s="39"/>
       <c r="G24" s="16">
         <v>155</v>
       </c>
@@ -2339,15 +2359,15 @@
       <c r="I24" s="16">
         <v>7.4534399999999996</v>
       </c>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="42"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="48"/>
       <c r="S24" s="10"/>
       <c r="T24" s="16">
         <f t="shared" si="0"/>
@@ -2377,7 +2397,7 @@
         <v>2432</v>
       </c>
       <c r="E25" s="14"/>
-      <c r="F25" s="39">
+      <c r="F25" s="40">
         <v>8</v>
       </c>
       <c r="G25" s="17">
@@ -2389,34 +2409,34 @@
       <c r="I25" s="17">
         <v>7.0041599999999997</v>
       </c>
-      <c r="J25" s="39">
+      <c r="J25" s="40">
         <v>19.63008</v>
       </c>
-      <c r="K25" s="34">
+      <c r="K25" s="38">
         <f>SUM(J25*0.26)</f>
         <v>5.1038208000000003</v>
       </c>
-      <c r="L25" s="39">
+      <c r="L25" s="40">
         <v>3</v>
       </c>
-      <c r="M25" s="47">
+      <c r="M25" s="41">
         <v>24.2</v>
       </c>
-      <c r="N25" s="36">
+      <c r="N25" s="46">
         <v>6</v>
       </c>
-      <c r="O25" s="41">
+      <c r="O25" s="47">
         <f>SUM(M25-10) *56.1</f>
         <v>796.62</v>
       </c>
-      <c r="P25" s="36">
+      <c r="P25" s="46">
         <v>1.5</v>
       </c>
-      <c r="Q25" s="34">
+      <c r="Q25" s="38">
         <f>SUM((M25-10)*14.02)</f>
         <v>199.08399999999997</v>
       </c>
-      <c r="R25" s="41">
+      <c r="R25" s="47">
         <f>SUM(Q25*L25)</f>
         <v>597.25199999999995</v>
       </c>
@@ -2449,7 +2469,7 @@
         <v>2272</v>
       </c>
       <c r="E26" s="14"/>
-      <c r="F26" s="34"/>
+      <c r="F26" s="38"/>
       <c r="G26" s="11">
         <v>136</v>
       </c>
@@ -2459,15 +2479,15 @@
       <c r="I26" s="11">
         <v>6.5433599999999998</v>
       </c>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="41"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="47"/>
       <c r="S26" s="10"/>
       <c r="T26" s="11">
         <f t="shared" si="0"/>
@@ -2497,7 +2517,7 @@
         <v>2112</v>
       </c>
       <c r="E27" s="14"/>
-      <c r="F27" s="40"/>
+      <c r="F27" s="39"/>
       <c r="G27" s="16">
         <v>127</v>
       </c>
@@ -2507,15 +2527,15 @@
       <c r="I27" s="16">
         <v>6.08256</v>
       </c>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="42"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="45"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="48"/>
       <c r="S27" s="10"/>
       <c r="T27" s="16">
         <f t="shared" si="0"/>
@@ -2545,7 +2565,7 @@
         <v>1948</v>
       </c>
       <c r="E28" s="14"/>
-      <c r="F28" s="39">
+      <c r="F28" s="40">
         <v>9</v>
       </c>
       <c r="G28" s="17">
@@ -2557,34 +2577,34 @@
       <c r="I28" s="17">
         <v>5.6102400000000001</v>
       </c>
-      <c r="J28" s="39">
+      <c r="J28" s="40">
         <v>15.41376</v>
       </c>
-      <c r="K28" s="34">
+      <c r="K28" s="38">
         <f>SUM(J28*0.26)</f>
         <v>4.0075776000000003</v>
       </c>
-      <c r="L28" s="39">
+      <c r="L28" s="40">
         <v>2</v>
       </c>
-      <c r="M28" s="47">
+      <c r="M28" s="41">
         <v>25.4</v>
       </c>
-      <c r="N28" s="36">
+      <c r="N28" s="46">
         <v>4</v>
       </c>
-      <c r="O28" s="41">
+      <c r="O28" s="47">
         <f>SUM(M28-10) *37.4</f>
         <v>575.95999999999992</v>
       </c>
-      <c r="P28" s="36">
+      <c r="P28" s="46">
         <v>2.5</v>
       </c>
-      <c r="Q28" s="34">
+      <c r="Q28" s="38">
         <f>SUM((M28-10)*23.38)</f>
         <v>360.05199999999996</v>
       </c>
-      <c r="R28" s="41">
+      <c r="R28" s="47">
         <f>SUM(Q28*L28)</f>
         <v>720.10399999999993</v>
       </c>
@@ -2617,7 +2637,7 @@
         <v>1784</v>
       </c>
       <c r="E29" s="14"/>
-      <c r="F29" s="34"/>
+      <c r="F29" s="38"/>
       <c r="G29" s="11">
         <v>107</v>
       </c>
@@ -2627,15 +2647,15 @@
       <c r="I29" s="11">
         <v>5.1379200000000003</v>
       </c>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="41"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="47"/>
       <c r="S29" s="10"/>
       <c r="T29" s="11">
         <f t="shared" si="0"/>
@@ -2665,7 +2685,7 @@
         <v>1620</v>
       </c>
       <c r="E30" s="14"/>
-      <c r="F30" s="40"/>
+      <c r="F30" s="39"/>
       <c r="G30" s="16">
         <v>97</v>
       </c>
@@ -2675,15 +2695,15 @@
       <c r="I30" s="16">
         <v>4.6656000000000004</v>
       </c>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="42"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="48"/>
       <c r="S30" s="10"/>
       <c r="T30" s="16">
         <f t="shared" si="0"/>
@@ -2713,7 +2733,7 @@
         <v>1460</v>
       </c>
       <c r="E31" s="14"/>
-      <c r="F31" s="39">
+      <c r="F31" s="40">
         <v>10</v>
       </c>
       <c r="G31" s="17">
@@ -2725,34 +2745,34 @@
       <c r="I31" s="17">
         <v>4.2047999999999996</v>
       </c>
-      <c r="J31" s="39">
+      <c r="J31" s="40">
         <v>11.02464</v>
       </c>
-      <c r="K31" s="34">
+      <c r="K31" s="38">
         <f>SUM(J31*0.26)</f>
         <v>2.8664064000000002</v>
       </c>
-      <c r="L31" s="39">
+      <c r="L31" s="40">
         <v>2</v>
       </c>
-      <c r="M31" s="47">
+      <c r="M31" s="41">
         <v>26.6</v>
       </c>
-      <c r="N31" s="36">
+      <c r="N31" s="46">
         <v>4</v>
       </c>
-      <c r="O31" s="41">
+      <c r="O31" s="47">
         <f>SUM(M31-10) *37.4</f>
         <v>620.84</v>
       </c>
-      <c r="P31" s="36">
+      <c r="P31" s="46">
         <v>1.5</v>
       </c>
-      <c r="Q31" s="34">
+      <c r="Q31" s="38">
         <f>SUM((M31-10)*14.02)</f>
         <v>232.732</v>
       </c>
-      <c r="R31" s="41">
+      <c r="R31" s="47">
         <f>SUM(Q31*L31)</f>
         <v>465.464</v>
       </c>
@@ -2785,7 +2805,7 @@
         <v>1300</v>
       </c>
       <c r="E32" s="14"/>
-      <c r="F32" s="34"/>
+      <c r="F32" s="38"/>
       <c r="G32" s="11">
         <v>78</v>
       </c>
@@ -2795,15 +2815,15 @@
       <c r="I32" s="11">
         <v>3.7440000000000002</v>
       </c>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="41"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="38"/>
+      <c r="R32" s="47"/>
       <c r="S32" s="10"/>
       <c r="T32" s="11">
         <f t="shared" si="0"/>
@@ -2833,7 +2853,7 @@
         <v>1068</v>
       </c>
       <c r="E33" s="14"/>
-      <c r="F33" s="40"/>
+      <c r="F33" s="39"/>
       <c r="G33" s="16">
         <v>64</v>
       </c>
@@ -2843,15 +2863,15 @@
       <c r="I33" s="16">
         <v>3.0758399999999999</v>
       </c>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="42"/>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="42"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="48"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="48"/>
       <c r="S33" s="10"/>
       <c r="T33" s="16">
         <f t="shared" si="0"/>
@@ -2881,7 +2901,7 @@
         <v>930</v>
       </c>
       <c r="E34" s="14"/>
-      <c r="F34" s="39">
+      <c r="F34" s="40">
         <v>11</v>
       </c>
       <c r="G34" s="17">
@@ -2893,34 +2913,34 @@
       <c r="I34" s="17">
         <v>2.6783999999999999</v>
       </c>
-      <c r="J34" s="39">
+      <c r="J34" s="40">
         <v>6.9004799999999999</v>
       </c>
-      <c r="K34" s="34">
+      <c r="K34" s="38">
         <f>SUM(J34*0.26)</f>
         <v>1.7941248000000001</v>
       </c>
-      <c r="L34" s="39">
+      <c r="L34" s="40">
         <v>1</v>
       </c>
-      <c r="M34" s="47">
+      <c r="M34" s="41">
         <v>27.8</v>
       </c>
-      <c r="N34" s="36">
+      <c r="N34" s="46">
         <v>2.5</v>
       </c>
-      <c r="O34" s="41">
+      <c r="O34" s="47">
         <f>SUM(M34-10) *23.38</f>
         <v>416.16399999999999</v>
       </c>
-      <c r="P34" s="36">
+      <c r="P34" s="46">
         <v>2.5</v>
       </c>
-      <c r="Q34" s="34">
+      <c r="Q34" s="38">
         <f>SUM((M34-10)*23.38)</f>
         <v>416.16399999999999</v>
       </c>
-      <c r="R34" s="41">
+      <c r="R34" s="47">
         <f>SUM(Q34*L34)</f>
         <v>416.16399999999999</v>
       </c>
@@ -2953,7 +2973,7 @@
         <v>796</v>
       </c>
       <c r="E35" s="14"/>
-      <c r="F35" s="34"/>
+      <c r="F35" s="38"/>
       <c r="G35" s="11">
         <v>48</v>
       </c>
@@ -2963,15 +2983,15 @@
       <c r="I35" s="11">
         <v>2.2924799999999999</v>
       </c>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="48"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="41"/>
-      <c r="P35" s="37"/>
-      <c r="Q35" s="34"/>
-      <c r="R35" s="41"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="47"/>
+      <c r="P35" s="44"/>
+      <c r="Q35" s="38"/>
+      <c r="R35" s="47"/>
       <c r="S35" s="10"/>
       <c r="T35" s="11">
         <f t="shared" si="0"/>
@@ -3001,7 +3021,7 @@
         <v>670</v>
       </c>
       <c r="E36" s="14"/>
-      <c r="F36" s="40"/>
+      <c r="F36" s="39"/>
       <c r="G36" s="16">
         <v>40</v>
       </c>
@@ -3011,15 +3031,15 @@
       <c r="I36" s="16">
         <v>1.9296</v>
       </c>
-      <c r="J36" s="40"/>
-      <c r="K36" s="40"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="49"/>
-      <c r="N36" s="38"/>
-      <c r="O36" s="42"/>
-      <c r="P36" s="38"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="42"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="48"/>
+      <c r="P36" s="45"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="48"/>
       <c r="S36" s="10"/>
       <c r="T36" s="16">
         <f t="shared" si="0"/>
@@ -3049,7 +3069,7 @@
         <v>554</v>
       </c>
       <c r="E37" s="14"/>
-      <c r="F37" s="39">
+      <c r="F37" s="40">
         <v>12</v>
       </c>
       <c r="G37" s="17">
@@ -3061,34 +3081,34 @@
       <c r="I37" s="17">
         <v>1.59552</v>
       </c>
-      <c r="J37" s="39">
+      <c r="J37" s="40">
         <v>4.7174399999999999</v>
       </c>
-      <c r="K37" s="39">
+      <c r="K37" s="40">
         <f>SUM(J37*0.26)</f>
         <v>1.2265344</v>
       </c>
-      <c r="L37" s="39">
+      <c r="L37" s="40">
         <v>1</v>
       </c>
-      <c r="M37" s="47">
+      <c r="M37" s="41">
         <v>30</v>
       </c>
-      <c r="N37" s="36">
+      <c r="N37" s="46">
         <v>1.5</v>
       </c>
-      <c r="O37" s="43">
+      <c r="O37" s="49">
         <f>SUM((M37-10)*14.02)</f>
         <v>280.39999999999998</v>
       </c>
-      <c r="P37" s="36">
+      <c r="P37" s="46">
         <v>1.5</v>
       </c>
-      <c r="Q37" s="39">
+      <c r="Q37" s="40">
         <f>SUM((M37-10)*14.02)</f>
         <v>280.39999999999998</v>
       </c>
-      <c r="R37" s="43">
+      <c r="R37" s="49">
         <f>SUM(Q37*L37)</f>
         <v>280.39999999999998</v>
       </c>
@@ -3121,7 +3141,7 @@
         <v>448</v>
       </c>
       <c r="E38" s="14"/>
-      <c r="F38" s="34"/>
+      <c r="F38" s="38"/>
       <c r="G38" s="11">
         <v>27</v>
       </c>
@@ -3131,15 +3151,15 @@
       <c r="I38" s="11">
         <v>1.2902400000000001</v>
       </c>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="41"/>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="34"/>
-      <c r="R38" s="41"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="44"/>
+      <c r="O38" s="47"/>
+      <c r="P38" s="44"/>
+      <c r="Q38" s="38"/>
+      <c r="R38" s="47"/>
       <c r="S38" s="10"/>
       <c r="T38" s="11">
         <f t="shared" si="0"/>
@@ -3169,7 +3189,7 @@
         <v>356</v>
       </c>
       <c r="E39" s="14"/>
-      <c r="F39" s="34"/>
+      <c r="F39" s="38"/>
       <c r="G39" s="11">
         <v>21</v>
       </c>
@@ -3179,15 +3199,15 @@
       <c r="I39" s="11">
         <v>1.02528</v>
       </c>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="48"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="41"/>
-      <c r="P39" s="37"/>
-      <c r="Q39" s="34"/>
-      <c r="R39" s="41"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="44"/>
+      <c r="O39" s="47"/>
+      <c r="P39" s="44"/>
+      <c r="Q39" s="38"/>
+      <c r="R39" s="47"/>
       <c r="S39" s="10"/>
       <c r="T39" s="11">
         <f t="shared" si="0"/>
@@ -3217,7 +3237,7 @@
         <v>280</v>
       </c>
       <c r="E40" s="14"/>
-      <c r="F40" s="40"/>
+      <c r="F40" s="39"/>
       <c r="G40" s="16">
         <v>17</v>
       </c>
@@ -3227,15 +3247,15 @@
       <c r="I40" s="16">
         <v>0.80640000000000001</v>
       </c>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="38"/>
-      <c r="O40" s="42"/>
-      <c r="P40" s="38"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="42"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="43"/>
+      <c r="N40" s="45"/>
+      <c r="O40" s="48"/>
+      <c r="P40" s="45"/>
+      <c r="Q40" s="39"/>
+      <c r="R40" s="48"/>
       <c r="S40" s="10"/>
       <c r="T40" s="16">
         <f t="shared" si="0"/>
@@ -3251,11 +3271,11 @@
       </c>
     </row>
     <row r="41" spans="1:23" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="50" t="s">
+      <c r="A41" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
       <c r="D41" s="3">
         <f>SUM(D4:D40)</f>
         <v>78854</v>
@@ -3313,43 +3333,43 @@
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="M42" s="34" t="s">
+      <c r="M42" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="N42" s="34"/>
+      <c r="N42" s="38"/>
       <c r="O42" s="23">
         <f>SUM(O41/1000)</f>
         <v>6.0606879999999999</v>
       </c>
-      <c r="P42" s="34" t="s">
+      <c r="P42" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="Q42" s="34"/>
+      <c r="Q42" s="38"/>
       <c r="R42" s="23">
         <f>SUM(R41/1000)</f>
         <v>5.9901579999999992</v>
       </c>
-      <c r="T42" s="51" t="s">
+      <c r="T42" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="U42" s="51"/>
+      <c r="U42" s="37"/>
       <c r="V42">
         <v>2.4</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="M43" s="34" t="s">
+      <c r="M43" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="N43" s="34"/>
+      <c r="N43" s="38"/>
       <c r="O43" s="23">
         <f>SUM(O42*2)</f>
         <v>12.121376</v>
       </c>
-      <c r="P43" s="34" t="s">
+      <c r="P43" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="Q43" s="34"/>
+      <c r="Q43" s="38"/>
       <c r="R43" s="23">
         <f>SUM(R42*2)</f>
         <v>11.980315999999998</v>
@@ -3388,10 +3408,10 @@
       <c r="H46" s="22">
         <v>1</v>
       </c>
-      <c r="I46" s="35" t="s">
+      <c r="I46" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="J46" s="35"/>
+      <c r="J46" s="53"/>
       <c r="T46" t="s">
         <v>13</v>
       </c>
@@ -3406,10 +3426,10 @@
       <c r="H47" s="22">
         <v>1.5</v>
       </c>
-      <c r="I47" s="35" t="s">
+      <c r="I47" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="J47" s="35"/>
+      <c r="J47" s="53"/>
       <c r="T47" s="5" t="s">
         <v>15</v>
       </c>
@@ -3422,10 +3442,10 @@
       <c r="H48" s="22">
         <v>2.5</v>
       </c>
-      <c r="I48" s="35" t="s">
+      <c r="I48" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="J48" s="35"/>
+      <c r="J48" s="53"/>
       <c r="M48" s="22">
         <f>60/0.75</f>
         <v>80</v>
@@ -3435,10 +3455,10 @@
       <c r="H49" s="22">
         <v>4</v>
       </c>
-      <c r="I49" s="35" t="s">
+      <c r="I49" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="J49" s="35"/>
+      <c r="J49" s="53"/>
       <c r="K49" s="10">
         <f>37.4*60</f>
         <v>2244</v>
@@ -3448,13 +3468,122 @@
       <c r="H50" s="22">
         <v>6</v>
       </c>
-      <c r="I50" s="35" t="s">
+      <c r="I50" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="J50" s="35"/>
+      <c r="J50" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="133">
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="P34:P36"/>
+    <mergeCell ref="Q34:Q36"/>
+    <mergeCell ref="P19:P21"/>
+    <mergeCell ref="Q19:Q21"/>
+    <mergeCell ref="P22:P24"/>
+    <mergeCell ref="Q22:Q24"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="P7:P9"/>
+    <mergeCell ref="Q7:Q9"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="P37:P40"/>
+    <mergeCell ref="Q37:Q40"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="R7:R9"/>
+    <mergeCell ref="R10:R12"/>
+    <mergeCell ref="R13:R15"/>
+    <mergeCell ref="R16:R18"/>
+    <mergeCell ref="R19:R21"/>
+    <mergeCell ref="R22:R24"/>
+    <mergeCell ref="R25:R27"/>
+    <mergeCell ref="R28:R30"/>
+    <mergeCell ref="R31:R33"/>
+    <mergeCell ref="R34:R36"/>
+    <mergeCell ref="R37:R40"/>
+    <mergeCell ref="P28:P30"/>
+    <mergeCell ref="Q28:Q30"/>
+    <mergeCell ref="P31:P33"/>
+    <mergeCell ref="Q31:Q33"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O7:O9"/>
+    <mergeCell ref="O10:O12"/>
+    <mergeCell ref="O13:O15"/>
+    <mergeCell ref="O16:O18"/>
+    <mergeCell ref="P25:P27"/>
+    <mergeCell ref="Q25:Q27"/>
+    <mergeCell ref="P10:P12"/>
+    <mergeCell ref="Q10:Q12"/>
+    <mergeCell ref="P13:P15"/>
+    <mergeCell ref="Q13:Q15"/>
+    <mergeCell ref="P16:P18"/>
+    <mergeCell ref="Q16:Q18"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="M13:M15"/>
+    <mergeCell ref="M16:M18"/>
+    <mergeCell ref="O34:O36"/>
+    <mergeCell ref="O37:O40"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="K28:K30"/>
+    <mergeCell ref="K31:K33"/>
+    <mergeCell ref="K34:K36"/>
+    <mergeCell ref="K37:K40"/>
+    <mergeCell ref="O19:O21"/>
+    <mergeCell ref="O22:O24"/>
+    <mergeCell ref="O25:O27"/>
+    <mergeCell ref="O28:O30"/>
+    <mergeCell ref="O31:O33"/>
+    <mergeCell ref="F37:F40"/>
+    <mergeCell ref="L37:L40"/>
+    <mergeCell ref="J31:J33"/>
+    <mergeCell ref="J34:J36"/>
+    <mergeCell ref="J37:J40"/>
+    <mergeCell ref="M34:M36"/>
+    <mergeCell ref="M37:M40"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="N10:N12"/>
+    <mergeCell ref="N13:N15"/>
+    <mergeCell ref="N16:N18"/>
+    <mergeCell ref="N19:N21"/>
+    <mergeCell ref="N22:N24"/>
+    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="N28:N30"/>
+    <mergeCell ref="N31:N33"/>
+    <mergeCell ref="N34:N36"/>
+    <mergeCell ref="N37:N40"/>
+    <mergeCell ref="M19:M21"/>
+    <mergeCell ref="M22:M24"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="M28:M30"/>
+    <mergeCell ref="M31:M33"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="L28:L30"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="L31:L33"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="L34:L36"/>
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="T42:U42"/>
     <mergeCell ref="F4:F6"/>
@@ -3479,115 +3608,6 @@
     <mergeCell ref="L22:L24"/>
     <mergeCell ref="F25:F27"/>
     <mergeCell ref="L25:L27"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="L28:L30"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="L31:L33"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="L34:L36"/>
-    <mergeCell ref="F37:F40"/>
-    <mergeCell ref="L37:L40"/>
-    <mergeCell ref="J31:J33"/>
-    <mergeCell ref="J34:J36"/>
-    <mergeCell ref="J37:J40"/>
-    <mergeCell ref="M34:M36"/>
-    <mergeCell ref="M37:M40"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N7:N9"/>
-    <mergeCell ref="N10:N12"/>
-    <mergeCell ref="N13:N15"/>
-    <mergeCell ref="N16:N18"/>
-    <mergeCell ref="N19:N21"/>
-    <mergeCell ref="N22:N24"/>
-    <mergeCell ref="N25:N27"/>
-    <mergeCell ref="N28:N30"/>
-    <mergeCell ref="N31:N33"/>
-    <mergeCell ref="N34:N36"/>
-    <mergeCell ref="N37:N40"/>
-    <mergeCell ref="M19:M21"/>
-    <mergeCell ref="M22:M24"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="M28:M30"/>
-    <mergeCell ref="M31:M33"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="M10:M12"/>
-    <mergeCell ref="M13:M15"/>
-    <mergeCell ref="M16:M18"/>
-    <mergeCell ref="O34:O36"/>
-    <mergeCell ref="O37:O40"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="K22:K24"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="K28:K30"/>
-    <mergeCell ref="K31:K33"/>
-    <mergeCell ref="K34:K36"/>
-    <mergeCell ref="K37:K40"/>
-    <mergeCell ref="O19:O21"/>
-    <mergeCell ref="O22:O24"/>
-    <mergeCell ref="O25:O27"/>
-    <mergeCell ref="O28:O30"/>
-    <mergeCell ref="O31:O33"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="O7:O9"/>
-    <mergeCell ref="O10:O12"/>
-    <mergeCell ref="O13:O15"/>
-    <mergeCell ref="O16:O18"/>
-    <mergeCell ref="P25:P27"/>
-    <mergeCell ref="Q25:Q27"/>
-    <mergeCell ref="P10:P12"/>
-    <mergeCell ref="Q10:Q12"/>
-    <mergeCell ref="P13:P15"/>
-    <mergeCell ref="Q13:Q15"/>
-    <mergeCell ref="P16:P18"/>
-    <mergeCell ref="Q16:Q18"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="P7:P9"/>
-    <mergeCell ref="Q7:Q9"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="P37:P40"/>
-    <mergeCell ref="Q37:Q40"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="R7:R9"/>
-    <mergeCell ref="R10:R12"/>
-    <mergeCell ref="R13:R15"/>
-    <mergeCell ref="R16:R18"/>
-    <mergeCell ref="R19:R21"/>
-    <mergeCell ref="R22:R24"/>
-    <mergeCell ref="R25:R27"/>
-    <mergeCell ref="R28:R30"/>
-    <mergeCell ref="R31:R33"/>
-    <mergeCell ref="R34:R36"/>
-    <mergeCell ref="R37:R40"/>
-    <mergeCell ref="P28:P30"/>
-    <mergeCell ref="Q28:Q30"/>
-    <mergeCell ref="P31:P33"/>
-    <mergeCell ref="Q31:Q33"/>
-    <mergeCell ref="P34:P36"/>
-    <mergeCell ref="Q34:Q36"/>
-    <mergeCell ref="P19:P21"/>
-    <mergeCell ref="Q19:Q21"/>
-    <mergeCell ref="P22:P24"/>
-    <mergeCell ref="Q22:Q24"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="I47:J47"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3598,8 +3618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58053A5F-A610-4A93-9AEC-88433C0D335B}">
   <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O45" sqref="O45"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3652,9 +3672,9 @@
       <c r="N2" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="44"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="45"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="51"/>
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
       <c r="T2" s="10"/>
@@ -3740,14 +3760,14 @@
         <v>1272</v>
       </c>
       <c r="E4" s="14"/>
-      <c r="F4" s="52">
+      <c r="F4" s="57">
         <v>1</v>
       </c>
-      <c r="G4" s="56">
+      <c r="G4" s="34">
         <f>SUM(D4/30)</f>
         <v>42.4</v>
       </c>
-      <c r="H4" s="56">
+      <c r="H4" s="34">
         <f>_xlfn.FLOOR.MATH(G4,2)</f>
         <v>42</v>
       </c>
@@ -3759,30 +3779,30 @@
         <f>I4/5</f>
         <v>2.016</v>
       </c>
-      <c r="K4" s="34">
+      <c r="K4" s="38">
         <f>SUM(J4:J6)</f>
         <v>7.2960000000000003</v>
       </c>
-      <c r="L4" s="34">
+      <c r="L4" s="38">
         <f>SUM(K4*0.26)</f>
         <v>1.8969600000000002</v>
       </c>
-      <c r="M4" s="34">
+      <c r="M4" s="38">
         <v>1</v>
       </c>
-      <c r="N4" s="48">
+      <c r="N4" s="42">
         <v>15.8</v>
       </c>
-      <c r="O4" s="37"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="41"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="47"/>
       <c r="R4" s="10"/>
       <c r="S4" s="11">
-        <f>D4*0.0002</f>
+        <f t="shared" ref="S4:S40" si="0">D4*0.0002</f>
         <v>0.25440000000000002</v>
       </c>
       <c r="T4" s="11">
-        <f>D4*0.00005</f>
+        <f t="shared" ref="T4:T40" si="1">D4*0.00005</f>
         <v>6.3600000000000004E-2</v>
       </c>
       <c r="U4" s="11">
@@ -3803,45 +3823,45 @@
         <v>389</v>
       </c>
       <c r="D5" s="11">
-        <f t="shared" ref="D5:D32" si="0">B5*4</f>
+        <f t="shared" ref="D5:D32" si="2">B5*4</f>
         <v>1556</v>
       </c>
       <c r="E5" s="14"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="56">
-        <f t="shared" ref="G5:G40" si="1">SUM(D5/30)</f>
+      <c r="F5" s="55"/>
+      <c r="G5" s="34">
+        <f t="shared" ref="G5:G40" si="3">SUM(D5/30)</f>
         <v>51.866666666666667</v>
       </c>
-      <c r="H5" s="56">
-        <f t="shared" ref="H5:H40" si="2">_xlfn.FLOOR.MATH(G5,2)</f>
+      <c r="H5" s="34">
+        <f t="shared" ref="H5:H40" si="4">_xlfn.FLOOR.MATH(G5,2)</f>
         <v>50</v>
       </c>
       <c r="I5" s="11">
-        <f t="shared" ref="I5:I40" si="3">H5*0.24</f>
+        <f t="shared" ref="I5:I40" si="5">H5*0.24</f>
         <v>12</v>
       </c>
       <c r="J5" s="11">
-        <f t="shared" ref="J5:J40" si="4">I5/5</f>
+        <f t="shared" ref="J5:J40" si="6">I5/5</f>
         <v>2.4</v>
       </c>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="41"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="47"/>
       <c r="R5" s="10"/>
       <c r="S5" s="11">
-        <f>D5*0.0002</f>
+        <f t="shared" si="0"/>
         <v>0.31120000000000003</v>
       </c>
       <c r="T5" s="11">
-        <f>D5*0.00005</f>
+        <f t="shared" si="1"/>
         <v>7.7800000000000008E-2</v>
       </c>
       <c r="U5" s="11">
-        <f t="shared" ref="U5:U41" si="5">T5+S5</f>
+        <f t="shared" ref="U5:U41" si="7">T5+S5</f>
         <v>0.38900000000000001</v>
       </c>
       <c r="V5" s="10"/>
@@ -3858,45 +3878,45 @@
         <v>457</v>
       </c>
       <c r="D6" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1828</v>
       </c>
       <c r="E6" s="14"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="56">
-        <f t="shared" si="1"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="34">
+        <f t="shared" si="3"/>
         <v>60.93333333333333</v>
       </c>
-      <c r="H6" s="56">
-        <f t="shared" si="2"/>
+      <c r="H6" s="34">
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="I6" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>14.399999999999999</v>
       </c>
       <c r="J6" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.88</v>
       </c>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="42"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="48"/>
       <c r="R6" s="10"/>
       <c r="S6" s="11">
-        <f>D6*0.0002</f>
+        <f t="shared" si="0"/>
         <v>0.36560000000000004</v>
       </c>
       <c r="T6" s="11">
-        <f>D6*0.00005</f>
+        <f t="shared" si="1"/>
         <v>9.1400000000000009E-2</v>
       </c>
       <c r="U6" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.45700000000000007</v>
       </c>
       <c r="V6" s="10"/>
@@ -3913,57 +3933,57 @@
         <v>521</v>
       </c>
       <c r="D7" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2084</v>
       </c>
       <c r="E7" s="14"/>
-      <c r="F7" s="55">
+      <c r="F7" s="54">
         <v>2</v>
       </c>
-      <c r="G7" s="56">
-        <f t="shared" si="1"/>
+      <c r="G7" s="34">
+        <f t="shared" si="3"/>
         <v>69.466666666666669</v>
       </c>
-      <c r="H7" s="56">
-        <f t="shared" si="2"/>
+      <c r="H7" s="34">
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="I7" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16.32</v>
       </c>
       <c r="J7" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.2640000000000002</v>
       </c>
-      <c r="K7" s="34">
-        <f t="shared" ref="K7" si="6">SUM(J7:J9)</f>
+      <c r="K7" s="38">
+        <f t="shared" ref="K7" si="8">SUM(J7:J9)</f>
         <v>10.943999999999999</v>
       </c>
-      <c r="L7" s="34">
+      <c r="L7" s="38">
         <f>SUM(K7*0.26)</f>
         <v>2.84544</v>
       </c>
-      <c r="M7" s="39">
+      <c r="M7" s="40">
         <v>2</v>
       </c>
-      <c r="N7" s="47">
+      <c r="N7" s="41">
         <v>17</v>
       </c>
-      <c r="O7" s="36"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="41"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="47"/>
       <c r="R7" s="10"/>
       <c r="S7" s="11">
-        <f>D7*0.0002</f>
+        <f t="shared" si="0"/>
         <v>0.4168</v>
       </c>
       <c r="T7" s="11">
-        <f>D7*0.00005</f>
+        <f t="shared" si="1"/>
         <v>0.1042</v>
       </c>
       <c r="U7" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.52100000000000002</v>
       </c>
       <c r="V7" s="10"/>
@@ -3980,45 +4000,45 @@
         <v>582</v>
       </c>
       <c r="D8" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2328</v>
       </c>
       <c r="E8" s="14"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="56">
-        <f t="shared" si="1"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="34">
+        <f t="shared" si="3"/>
         <v>77.599999999999994</v>
       </c>
-      <c r="H8" s="56">
-        <f t="shared" si="2"/>
+      <c r="H8" s="34">
+        <f t="shared" si="4"/>
         <v>76</v>
       </c>
       <c r="I8" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>18.239999999999998</v>
       </c>
       <c r="J8" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.6479999999999997</v>
       </c>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="41"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="47"/>
       <c r="R8" s="10"/>
       <c r="S8" s="11">
-        <f>D8*0.0002</f>
+        <f t="shared" si="0"/>
         <v>0.46560000000000001</v>
       </c>
       <c r="T8" s="11">
-        <f>D8*0.00005</f>
+        <f t="shared" si="1"/>
         <v>0.1164</v>
       </c>
       <c r="U8" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.58200000000000007</v>
       </c>
       <c r="V8" s="10"/>
@@ -4035,45 +4055,45 @@
         <v>640</v>
       </c>
       <c r="D9" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2560</v>
       </c>
       <c r="E9" s="14"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="56">
-        <f t="shared" si="1"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="34">
+        <f t="shared" si="3"/>
         <v>85.333333333333329</v>
       </c>
-      <c r="H9" s="56">
-        <f t="shared" si="2"/>
+      <c r="H9" s="34">
+        <f t="shared" si="4"/>
         <v>84</v>
       </c>
       <c r="I9" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>20.16</v>
       </c>
       <c r="J9" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.032</v>
       </c>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="42"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="48"/>
       <c r="R9" s="10"/>
       <c r="S9" s="11">
-        <f>D9*0.0002</f>
+        <f t="shared" si="0"/>
         <v>0.51200000000000001</v>
       </c>
       <c r="T9" s="11">
-        <f>D9*0.00005</f>
+        <f t="shared" si="1"/>
         <v>0.128</v>
       </c>
       <c r="U9" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.64</v>
       </c>
       <c r="V9" s="10"/>
@@ -4090,57 +4110,57 @@
         <v>695</v>
       </c>
       <c r="D10" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2780</v>
       </c>
       <c r="E10" s="14"/>
-      <c r="F10" s="55">
+      <c r="F10" s="54">
         <v>3</v>
       </c>
-      <c r="G10" s="56">
-        <f t="shared" si="1"/>
+      <c r="G10" s="34">
+        <f t="shared" si="3"/>
         <v>92.666666666666671</v>
       </c>
-      <c r="H10" s="56">
-        <f t="shared" si="2"/>
+      <c r="H10" s="34">
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
       <c r="I10" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>22.08</v>
       </c>
       <c r="J10" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.4159999999999995</v>
       </c>
-      <c r="K10" s="34">
-        <f t="shared" ref="K10" si="7">SUM(J10:J12)</f>
+      <c r="K10" s="38">
+        <f t="shared" ref="K10" si="9">SUM(J10:J12)</f>
         <v>14.111999999999998</v>
       </c>
-      <c r="L10" s="34">
+      <c r="L10" s="38">
         <f>SUM(K10*0.26)</f>
         <v>3.6691199999999995</v>
       </c>
-      <c r="M10" s="39">
+      <c r="M10" s="40">
         <v>2</v>
       </c>
-      <c r="N10" s="47">
+      <c r="N10" s="41">
         <v>18.2</v>
       </c>
-      <c r="O10" s="36"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="41"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="47"/>
       <c r="R10" s="10"/>
       <c r="S10" s="11">
-        <f>D10*0.0002</f>
+        <f t="shared" si="0"/>
         <v>0.55600000000000005</v>
       </c>
       <c r="T10" s="11">
-        <f>D10*0.00005</f>
+        <f t="shared" si="1"/>
         <v>0.13900000000000001</v>
       </c>
       <c r="U10" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.69500000000000006</v>
       </c>
       <c r="V10" s="10"/>
@@ -4157,45 +4177,45 @@
         <v>746</v>
       </c>
       <c r="D11" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2984</v>
       </c>
       <c r="E11" s="14"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="56">
-        <f t="shared" si="1"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="34">
+        <f t="shared" si="3"/>
         <v>99.466666666666669</v>
       </c>
-      <c r="H11" s="56">
-        <f t="shared" si="2"/>
+      <c r="H11" s="34">
+        <f t="shared" si="4"/>
         <v>98</v>
       </c>
       <c r="I11" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>23.52</v>
       </c>
       <c r="J11" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.7039999999999997</v>
       </c>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="41"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="47"/>
       <c r="R11" s="10"/>
       <c r="S11" s="11">
-        <f>D11*0.0002</f>
+        <f t="shared" si="0"/>
         <v>0.5968</v>
       </c>
       <c r="T11" s="11">
-        <f>D11*0.00005</f>
+        <f t="shared" si="1"/>
         <v>0.1492</v>
       </c>
       <c r="U11" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.746</v>
       </c>
       <c r="V11" s="10"/>
@@ -4212,45 +4232,45 @@
         <v>792</v>
       </c>
       <c r="D12" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3168</v>
       </c>
       <c r="E12" s="14"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="56">
-        <f t="shared" si="1"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="34">
+        <f t="shared" si="3"/>
         <v>105.6</v>
       </c>
-      <c r="H12" s="56">
-        <f t="shared" si="2"/>
+      <c r="H12" s="34">
+        <f t="shared" si="4"/>
         <v>104</v>
       </c>
       <c r="I12" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>24.96</v>
       </c>
       <c r="J12" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.992</v>
       </c>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="42"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="48"/>
       <c r="R12" s="10"/>
       <c r="S12" s="11">
-        <f>D12*0.0002</f>
+        <f t="shared" si="0"/>
         <v>0.63360000000000005</v>
       </c>
       <c r="T12" s="11">
-        <f>D12*0.00005</f>
+        <f t="shared" si="1"/>
         <v>0.15840000000000001</v>
       </c>
       <c r="U12" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.79200000000000004</v>
       </c>
       <c r="V12" s="10"/>
@@ -4267,57 +4287,57 @@
         <v>832</v>
       </c>
       <c r="D13" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3328</v>
       </c>
       <c r="E13" s="14"/>
-      <c r="F13" s="55">
+      <c r="F13" s="54">
         <v>4</v>
       </c>
-      <c r="G13" s="56">
-        <f t="shared" si="1"/>
+      <c r="G13" s="34">
+        <f t="shared" si="3"/>
         <v>110.93333333333334</v>
       </c>
-      <c r="H13" s="56">
-        <f t="shared" si="2"/>
+      <c r="H13" s="34">
+        <f t="shared" si="4"/>
         <v>110</v>
       </c>
       <c r="I13" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>26.4</v>
       </c>
       <c r="J13" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.2799999999999994</v>
       </c>
-      <c r="K13" s="34">
-        <f t="shared" ref="K13" si="8">SUM(J13:J15)</f>
+      <c r="K13" s="38">
+        <f t="shared" ref="K13" si="10">SUM(J13:J15)</f>
         <v>16.32</v>
       </c>
-      <c r="L13" s="34">
+      <c r="L13" s="38">
         <f>SUM(K13*0.26)</f>
         <v>4.2431999999999999</v>
       </c>
-      <c r="M13" s="39">
+      <c r="M13" s="40">
         <v>3</v>
       </c>
-      <c r="N13" s="47">
+      <c r="N13" s="41">
         <v>19.399999999999999</v>
       </c>
-      <c r="O13" s="36"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="41"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="47"/>
       <c r="R13" s="10"/>
       <c r="S13" s="11">
-        <f>D13*0.0002</f>
+        <f t="shared" si="0"/>
         <v>0.66560000000000008</v>
       </c>
       <c r="T13" s="11">
-        <f>D13*0.00005</f>
+        <f t="shared" si="1"/>
         <v>0.16640000000000002</v>
       </c>
       <c r="U13" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.83200000000000007</v>
       </c>
       <c r="V13" s="10"/>
@@ -4334,45 +4354,45 @@
         <v>864</v>
       </c>
       <c r="D14" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3456</v>
       </c>
       <c r="E14" s="14"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="56">
-        <f t="shared" si="1"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="34">
+        <f t="shared" si="3"/>
         <v>115.2</v>
       </c>
-      <c r="H14" s="56">
-        <f t="shared" si="2"/>
+      <c r="H14" s="34">
+        <f t="shared" si="4"/>
         <v>114</v>
       </c>
       <c r="I14" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>27.36</v>
       </c>
       <c r="J14" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.4719999999999995</v>
       </c>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="41"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="47"/>
       <c r="R14" s="10"/>
       <c r="S14" s="11">
-        <f>D14*0.0002</f>
+        <f t="shared" si="0"/>
         <v>0.69120000000000004</v>
       </c>
       <c r="T14" s="11">
-        <f>D14*0.00005</f>
+        <f t="shared" si="1"/>
         <v>0.17280000000000001</v>
       </c>
       <c r="U14" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.8640000000000001</v>
       </c>
       <c r="V14" s="10"/>
@@ -4389,45 +4409,45 @@
         <v>881</v>
       </c>
       <c r="D15" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3524</v>
       </c>
       <c r="E15" s="14"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="56">
-        <f t="shared" si="1"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="34">
+        <f t="shared" si="3"/>
         <v>117.46666666666667</v>
       </c>
-      <c r="H15" s="56">
-        <f t="shared" si="2"/>
+      <c r="H15" s="34">
+        <f t="shared" si="4"/>
         <v>116</v>
       </c>
       <c r="I15" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>27.84</v>
       </c>
       <c r="J15" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.5679999999999996</v>
       </c>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="42"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="48"/>
       <c r="R15" s="10"/>
       <c r="S15" s="11">
-        <f>D15*0.0002</f>
+        <f t="shared" si="0"/>
         <v>0.70479999999999998</v>
       </c>
       <c r="T15" s="11">
-        <f>D15*0.00005</f>
+        <f t="shared" si="1"/>
         <v>0.1762</v>
       </c>
       <c r="U15" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.88100000000000001</v>
       </c>
       <c r="V15" s="10"/>
@@ -4444,57 +4464,57 @@
         <v>876</v>
       </c>
       <c r="D16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3504</v>
       </c>
       <c r="E16" s="14"/>
-      <c r="F16" s="55">
+      <c r="F16" s="54">
         <v>5</v>
       </c>
-      <c r="G16" s="56">
-        <f t="shared" si="1"/>
+      <c r="G16" s="34">
+        <f t="shared" si="3"/>
         <v>116.8</v>
       </c>
-      <c r="H16" s="56">
-        <f t="shared" si="2"/>
+      <c r="H16" s="34">
+        <f t="shared" si="4"/>
         <v>116</v>
       </c>
       <c r="I16" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>27.84</v>
       </c>
       <c r="J16" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.5679999999999996</v>
       </c>
-      <c r="K16" s="34">
-        <f t="shared" ref="K16" si="9">SUM(J16:J18)</f>
+      <c r="K16" s="38">
+        <f t="shared" ref="K16" si="11">SUM(J16:J18)</f>
         <v>16.415999999999997</v>
       </c>
-      <c r="L16" s="34">
+      <c r="L16" s="38">
         <f>SUM(K16*0.26)</f>
         <v>4.2681599999999991</v>
       </c>
-      <c r="M16" s="39">
+      <c r="M16" s="40">
         <v>3</v>
       </c>
-      <c r="N16" s="47">
+      <c r="N16" s="41">
         <v>20.6</v>
       </c>
-      <c r="O16" s="36"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="41"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="47"/>
       <c r="R16" s="10"/>
       <c r="S16" s="11">
-        <f>D16*0.0002</f>
+        <f t="shared" si="0"/>
         <v>0.70079999999999998</v>
       </c>
       <c r="T16" s="11">
-        <f>D16*0.00005</f>
+        <f t="shared" si="1"/>
         <v>0.17519999999999999</v>
       </c>
       <c r="U16" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.876</v>
       </c>
       <c r="V16" s="10"/>
@@ -4511,45 +4531,45 @@
         <v>861</v>
       </c>
       <c r="D17" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3444</v>
       </c>
       <c r="E17" s="14"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="56">
-        <f t="shared" si="1"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="34">
+        <f t="shared" si="3"/>
         <v>114.8</v>
       </c>
-      <c r="H17" s="56">
-        <f t="shared" si="2"/>
+      <c r="H17" s="34">
+        <f t="shared" si="4"/>
         <v>114</v>
       </c>
       <c r="I17" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>27.36</v>
       </c>
       <c r="J17" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.4719999999999995</v>
       </c>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="41"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="47"/>
       <c r="R17" s="10"/>
       <c r="S17" s="11">
-        <f>D17*0.0002</f>
+        <f t="shared" si="0"/>
         <v>0.68880000000000008</v>
       </c>
       <c r="T17" s="11">
-        <f>D17*0.00005</f>
+        <f t="shared" si="1"/>
         <v>0.17220000000000002</v>
       </c>
       <c r="U17" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.8610000000000001</v>
       </c>
       <c r="V17" s="10"/>
@@ -4566,45 +4586,45 @@
         <v>841</v>
       </c>
       <c r="D18" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3364</v>
       </c>
       <c r="E18" s="14"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="56">
-        <f t="shared" si="1"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="34">
+        <f t="shared" si="3"/>
         <v>112.13333333333334</v>
       </c>
-      <c r="H18" s="56">
-        <f t="shared" si="2"/>
+      <c r="H18" s="34">
+        <f t="shared" si="4"/>
         <v>112</v>
       </c>
       <c r="I18" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>26.88</v>
       </c>
       <c r="J18" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.3759999999999994</v>
       </c>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="42"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="48"/>
       <c r="R18" s="10"/>
       <c r="S18" s="11">
-        <f>D18*0.0002</f>
+        <f t="shared" si="0"/>
         <v>0.67280000000000006</v>
       </c>
       <c r="T18" s="11">
-        <f>D18*0.00005</f>
+        <f t="shared" si="1"/>
         <v>0.16820000000000002</v>
       </c>
       <c r="U18" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.84100000000000008</v>
       </c>
       <c r="V18" s="10"/>
@@ -4621,57 +4641,57 @@
         <v>816</v>
       </c>
       <c r="D19" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3264</v>
       </c>
       <c r="E19" s="14"/>
-      <c r="F19" s="55">
+      <c r="F19" s="54">
         <v>6</v>
       </c>
-      <c r="G19" s="56">
-        <f t="shared" si="1"/>
+      <c r="G19" s="34">
+        <f t="shared" si="3"/>
         <v>108.8</v>
       </c>
-      <c r="H19" s="56">
-        <f t="shared" si="2"/>
+      <c r="H19" s="34">
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="I19" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>25.919999999999998</v>
       </c>
       <c r="J19" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.1839999999999993</v>
       </c>
-      <c r="K19" s="34">
-        <f t="shared" ref="K19" si="10">SUM(J19:J21)</f>
+      <c r="K19" s="38">
+        <f t="shared" ref="K19" si="12">SUM(J19:J21)</f>
         <v>14.975999999999999</v>
       </c>
-      <c r="L19" s="34">
+      <c r="L19" s="38">
         <f>SUM(K19*0.26)</f>
         <v>3.8937599999999999</v>
       </c>
-      <c r="M19" s="39">
+      <c r="M19" s="40">
         <v>2</v>
       </c>
-      <c r="N19" s="47">
+      <c r="N19" s="41">
         <v>21.8</v>
       </c>
-      <c r="O19" s="36"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="41"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="47"/>
       <c r="R19" s="10"/>
       <c r="S19" s="11">
-        <f>D19*0.0002</f>
+        <f t="shared" si="0"/>
         <v>0.65280000000000005</v>
       </c>
       <c r="T19" s="11">
-        <f>D19*0.00005</f>
+        <f t="shared" si="1"/>
         <v>0.16320000000000001</v>
       </c>
       <c r="U19" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.81600000000000006</v>
       </c>
       <c r="V19" s="10"/>
@@ -4688,45 +4708,45 @@
         <v>787</v>
       </c>
       <c r="D20" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3148</v>
       </c>
       <c r="E20" s="14"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="56">
-        <f t="shared" si="1"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="34">
+        <f t="shared" si="3"/>
         <v>104.93333333333334</v>
       </c>
-      <c r="H20" s="56">
-        <f t="shared" si="2"/>
+      <c r="H20" s="34">
+        <f t="shared" si="4"/>
         <v>104</v>
       </c>
       <c r="I20" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>24.96</v>
       </c>
       <c r="J20" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.992</v>
       </c>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="41"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="47"/>
       <c r="R20" s="10"/>
       <c r="S20" s="11">
-        <f>D20*0.0002</f>
+        <f t="shared" si="0"/>
         <v>0.62960000000000005</v>
       </c>
       <c r="T20" s="11">
-        <f>D20*0.00005</f>
+        <f t="shared" si="1"/>
         <v>0.15740000000000001</v>
       </c>
       <c r="U20" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.78700000000000003</v>
       </c>
       <c r="V20" s="10"/>
@@ -4743,45 +4763,45 @@
         <v>755</v>
       </c>
       <c r="D21" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3020</v>
       </c>
       <c r="E21" s="14"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="56">
-        <f t="shared" si="1"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="34">
+        <f t="shared" si="3"/>
         <v>100.66666666666667</v>
       </c>
-      <c r="H21" s="56">
-        <f t="shared" si="2"/>
+      <c r="H21" s="34">
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I21" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="J21" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.8</v>
       </c>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="42"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="48"/>
       <c r="R21" s="10"/>
       <c r="S21" s="11">
-        <f>D21*0.0002</f>
+        <f t="shared" si="0"/>
         <v>0.60399999999999998</v>
       </c>
       <c r="T21" s="11">
-        <f>D21*0.00005</f>
+        <f t="shared" si="1"/>
         <v>0.151</v>
       </c>
       <c r="U21" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.755</v>
       </c>
       <c r="V21" s="10"/>
@@ -4798,57 +4818,57 @@
         <v>721</v>
       </c>
       <c r="D22" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2884</v>
       </c>
       <c r="E22" s="14"/>
-      <c r="F22" s="55">
+      <c r="F22" s="54">
         <v>7</v>
       </c>
-      <c r="G22" s="56">
-        <f t="shared" si="1"/>
+      <c r="G22" s="34">
+        <f t="shared" si="3"/>
         <v>96.13333333333334</v>
       </c>
-      <c r="H22" s="56">
-        <f t="shared" si="2"/>
+      <c r="H22" s="34">
+        <f t="shared" si="4"/>
         <v>96</v>
       </c>
       <c r="I22" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>23.04</v>
       </c>
       <c r="J22" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.6079999999999997</v>
       </c>
-      <c r="K22" s="34">
-        <f t="shared" ref="K22" si="11">SUM(J22:J24)</f>
+      <c r="K22" s="38">
+        <f t="shared" ref="K22" si="13">SUM(J22:J24)</f>
         <v>13.055999999999999</v>
       </c>
-      <c r="L22" s="34">
+      <c r="L22" s="38">
         <f>SUM(K22*0.26)</f>
         <v>3.3945599999999998</v>
       </c>
-      <c r="M22" s="39">
+      <c r="M22" s="40">
         <v>2</v>
       </c>
-      <c r="N22" s="47">
+      <c r="N22" s="41">
         <v>23</v>
       </c>
-      <c r="O22" s="36"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="41"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="47"/>
       <c r="R22" s="10"/>
       <c r="S22" s="11">
-        <f>D22*0.0002</f>
+        <f t="shared" si="0"/>
         <v>0.57679999999999998</v>
       </c>
       <c r="T22" s="11">
-        <f>D22*0.00005</f>
+        <f t="shared" si="1"/>
         <v>0.14419999999999999</v>
       </c>
       <c r="U22" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.72099999999999997</v>
       </c>
       <c r="V22" s="10"/>
@@ -4865,45 +4885,45 @@
         <v>685</v>
       </c>
       <c r="D23" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2740</v>
       </c>
       <c r="E23" s="14"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="56">
-        <f t="shared" si="1"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="34">
+        <f t="shared" si="3"/>
         <v>91.333333333333329</v>
       </c>
-      <c r="H23" s="56">
-        <f t="shared" si="2"/>
+      <c r="H23" s="34">
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="I23" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>21.599999999999998</v>
       </c>
       <c r="J23" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.3199999999999994</v>
       </c>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="41"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="47"/>
       <c r="R23" s="10"/>
       <c r="S23" s="11">
-        <f>D23*0.0002</f>
+        <f t="shared" si="0"/>
         <v>0.54800000000000004</v>
       </c>
       <c r="T23" s="11">
-        <f>D23*0.00005</f>
+        <f t="shared" si="1"/>
         <v>0.13700000000000001</v>
       </c>
       <c r="U23" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.68500000000000005</v>
       </c>
       <c r="V23" s="10"/>
@@ -4920,45 +4940,45 @@
         <v>647</v>
       </c>
       <c r="D24" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2588</v>
       </c>
       <c r="E24" s="14"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="56">
-        <f t="shared" si="1"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="34">
+        <f t="shared" si="3"/>
         <v>86.266666666666666</v>
       </c>
-      <c r="H24" s="56">
-        <f t="shared" si="2"/>
+      <c r="H24" s="34">
+        <f t="shared" si="4"/>
         <v>86</v>
       </c>
       <c r="I24" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>20.64</v>
       </c>
       <c r="J24" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.1280000000000001</v>
       </c>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="42"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="48"/>
       <c r="R24" s="10"/>
       <c r="S24" s="11">
-        <f>D24*0.0002</f>
+        <f t="shared" si="0"/>
         <v>0.51760000000000006</v>
       </c>
       <c r="T24" s="11">
-        <f>D24*0.00005</f>
+        <f t="shared" si="1"/>
         <v>0.12940000000000002</v>
       </c>
       <c r="U24" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.64700000000000002</v>
       </c>
       <c r="V24" s="10"/>
@@ -4975,57 +4995,57 @@
         <v>608</v>
       </c>
       <c r="D25" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2432</v>
       </c>
       <c r="E25" s="14"/>
-      <c r="F25" s="55">
+      <c r="F25" s="54">
         <v>8</v>
       </c>
-      <c r="G25" s="56">
-        <f t="shared" si="1"/>
+      <c r="G25" s="34">
+        <f t="shared" si="3"/>
         <v>81.066666666666663</v>
       </c>
-      <c r="H25" s="56">
-        <f t="shared" si="2"/>
+      <c r="H25" s="34">
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="I25" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>19.2</v>
       </c>
       <c r="J25" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.84</v>
       </c>
-      <c r="K25" s="34">
-        <f t="shared" ref="K25" si="12">SUM(J25:J27)</f>
+      <c r="K25" s="38">
+        <f t="shared" ref="K25" si="14">SUM(J25:J27)</f>
         <v>10.751999999999999</v>
       </c>
-      <c r="L25" s="34">
+      <c r="L25" s="38">
         <f>SUM(K25*0.26)</f>
         <v>2.7955199999999998</v>
       </c>
-      <c r="M25" s="39">
+      <c r="M25" s="40">
         <v>2</v>
       </c>
-      <c r="N25" s="47">
+      <c r="N25" s="41">
         <v>24.2</v>
       </c>
-      <c r="O25" s="36"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="41"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="47"/>
       <c r="R25" s="10"/>
       <c r="S25" s="11">
-        <f>D25*0.0002</f>
+        <f t="shared" si="0"/>
         <v>0.4864</v>
       </c>
       <c r="T25" s="11">
-        <f>D25*0.00005</f>
+        <f t="shared" si="1"/>
         <v>0.1216</v>
       </c>
       <c r="U25" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.60799999999999998</v>
       </c>
       <c r="V25" s="10"/>
@@ -5042,45 +5062,45 @@
         <v>568</v>
       </c>
       <c r="D26" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2272</v>
       </c>
       <c r="E26" s="14"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="56">
-        <f t="shared" si="1"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="34">
+        <f t="shared" si="3"/>
         <v>75.733333333333334</v>
       </c>
-      <c r="H26" s="56">
-        <f t="shared" si="2"/>
+      <c r="H26" s="34">
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
       <c r="I26" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>17.759999999999998</v>
       </c>
       <c r="J26" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.5519999999999996</v>
       </c>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="41"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="47"/>
       <c r="R26" s="10"/>
       <c r="S26" s="11">
-        <f>D26*0.0002</f>
+        <f t="shared" si="0"/>
         <v>0.45440000000000003</v>
       </c>
       <c r="T26" s="11">
-        <f>D26*0.00005</f>
+        <f t="shared" si="1"/>
         <v>0.11360000000000001</v>
       </c>
       <c r="U26" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.56800000000000006</v>
       </c>
       <c r="V26" s="10"/>
@@ -5097,45 +5117,45 @@
         <v>528</v>
       </c>
       <c r="D27" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2112</v>
       </c>
       <c r="E27" s="14"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="56">
-        <f t="shared" si="1"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="34">
+        <f t="shared" si="3"/>
         <v>70.400000000000006</v>
       </c>
-      <c r="H27" s="56">
-        <f t="shared" si="2"/>
+      <c r="H27" s="34">
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="I27" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16.8</v>
       </c>
       <c r="J27" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.3600000000000003</v>
       </c>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="42"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="48"/>
       <c r="R27" s="10"/>
       <c r="S27" s="11">
-        <f>D27*0.0002</f>
+        <f t="shared" si="0"/>
         <v>0.4224</v>
       </c>
       <c r="T27" s="11">
-        <f>D27*0.00005</f>
+        <f t="shared" si="1"/>
         <v>0.1056</v>
       </c>
       <c r="U27" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.52800000000000002</v>
       </c>
       <c r="V27" s="10"/>
@@ -5152,57 +5172,57 @@
         <v>487</v>
       </c>
       <c r="D28" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1948</v>
       </c>
       <c r="E28" s="14"/>
-      <c r="F28" s="55">
+      <c r="F28" s="54">
         <v>9</v>
       </c>
-      <c r="G28" s="56">
-        <f t="shared" si="1"/>
+      <c r="G28" s="34">
+        <f t="shared" si="3"/>
         <v>64.933333333333337</v>
       </c>
-      <c r="H28" s="56">
-        <f t="shared" si="2"/>
+      <c r="H28" s="34">
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="I28" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>15.36</v>
       </c>
       <c r="J28" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.0720000000000001</v>
       </c>
-      <c r="K28" s="34">
-        <f t="shared" ref="K28" si="13">SUM(J28:J30)</f>
+      <c r="K28" s="38">
+        <f t="shared" ref="K28" si="15">SUM(J28:J30)</f>
         <v>8.4480000000000004</v>
       </c>
-      <c r="L28" s="34">
+      <c r="L28" s="38">
         <f>SUM(K28*0.26)</f>
         <v>2.1964800000000002</v>
       </c>
-      <c r="M28" s="39">
+      <c r="M28" s="40">
         <v>2</v>
       </c>
-      <c r="N28" s="47">
+      <c r="N28" s="41">
         <v>25.4</v>
       </c>
-      <c r="O28" s="36"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="41"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="47"/>
       <c r="R28" s="10"/>
       <c r="S28" s="11">
-        <f>D28*0.0002</f>
+        <f t="shared" si="0"/>
         <v>0.3896</v>
       </c>
       <c r="T28" s="11">
-        <f>D28*0.00005</f>
+        <f t="shared" si="1"/>
         <v>9.74E-2</v>
       </c>
       <c r="U28" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.48699999999999999</v>
       </c>
       <c r="V28" s="10"/>
@@ -5219,45 +5239,45 @@
         <v>446</v>
       </c>
       <c r="D29" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1784</v>
       </c>
       <c r="E29" s="14"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="56">
-        <f t="shared" si="1"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="34">
+        <f t="shared" si="3"/>
         <v>59.466666666666669</v>
       </c>
-      <c r="H29" s="56">
-        <f t="shared" si="2"/>
+      <c r="H29" s="34">
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="I29" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>13.92</v>
       </c>
       <c r="J29" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.7839999999999998</v>
       </c>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="41"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="47"/>
       <c r="R29" s="10"/>
       <c r="S29" s="11">
-        <f>D29*0.0002</f>
+        <f t="shared" si="0"/>
         <v>0.35680000000000001</v>
       </c>
       <c r="T29" s="11">
-        <f>D29*0.00005</f>
+        <f t="shared" si="1"/>
         <v>8.9200000000000002E-2</v>
       </c>
       <c r="U29" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.44600000000000001</v>
       </c>
       <c r="V29" s="10"/>
@@ -5274,45 +5294,45 @@
         <v>405</v>
       </c>
       <c r="D30" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1620</v>
       </c>
       <c r="E30" s="14"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="56">
-        <f t="shared" si="1"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="34">
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
-      <c r="H30" s="56">
-        <f t="shared" si="2"/>
+      <c r="H30" s="34">
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="I30" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12.959999999999999</v>
       </c>
       <c r="J30" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.5919999999999996</v>
       </c>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="42"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="48"/>
       <c r="R30" s="10"/>
       <c r="S30" s="11">
-        <f>D30*0.0002</f>
+        <f t="shared" si="0"/>
         <v>0.32400000000000001</v>
       </c>
       <c r="T30" s="11">
-        <f>D30*0.00005</f>
+        <f t="shared" si="1"/>
         <v>8.1000000000000003E-2</v>
       </c>
       <c r="U30" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.40500000000000003</v>
       </c>
       <c r="V30" s="10"/>
@@ -5329,57 +5349,57 @@
         <v>365</v>
       </c>
       <c r="D31" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1460</v>
       </c>
       <c r="E31" s="14"/>
-      <c r="F31" s="55">
+      <c r="F31" s="54">
         <v>10</v>
       </c>
-      <c r="G31" s="56">
-        <f t="shared" si="1"/>
+      <c r="G31" s="34">
+        <f t="shared" si="3"/>
         <v>48.666666666666664</v>
       </c>
-      <c r="H31" s="56">
-        <f t="shared" si="2"/>
+      <c r="H31" s="34">
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="I31" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11.52</v>
       </c>
       <c r="J31" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.3039999999999998</v>
       </c>
-      <c r="K31" s="34">
-        <f t="shared" ref="K31" si="14">SUM(J31:J33)</f>
+      <c r="K31" s="38">
+        <f t="shared" ref="K31" si="16">SUM(J31:J33)</f>
         <v>5.952</v>
       </c>
-      <c r="L31" s="34">
+      <c r="L31" s="38">
         <f>SUM(K31*0.26)</f>
         <v>1.54752</v>
       </c>
-      <c r="M31" s="39">
+      <c r="M31" s="40">
         <v>1</v>
       </c>
-      <c r="N31" s="47">
+      <c r="N31" s="41">
         <v>26.6</v>
       </c>
-      <c r="O31" s="36"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="41"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="47"/>
       <c r="R31" s="10"/>
       <c r="S31" s="11">
-        <f>D31*0.0002</f>
+        <f t="shared" si="0"/>
         <v>0.29200000000000004</v>
       </c>
       <c r="T31" s="11">
-        <f>D31*0.00005</f>
+        <f t="shared" si="1"/>
         <v>7.3000000000000009E-2</v>
       </c>
       <c r="U31" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.36500000000000005</v>
       </c>
       <c r="V31" s="10"/>
@@ -5396,45 +5416,45 @@
         <v>325</v>
       </c>
       <c r="D32" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1300</v>
       </c>
       <c r="E32" s="14"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="56">
-        <f t="shared" si="1"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="34">
+        <f t="shared" si="3"/>
         <v>43.333333333333336</v>
       </c>
-      <c r="H32" s="56">
-        <f t="shared" si="2"/>
+      <c r="H32" s="34">
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="I32" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10.08</v>
       </c>
       <c r="J32" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.016</v>
       </c>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="41"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="47"/>
       <c r="R32" s="10"/>
       <c r="S32" s="11">
-        <f>D32*0.0002</f>
+        <f t="shared" si="0"/>
         <v>0.26</v>
       </c>
       <c r="T32" s="11">
-        <f>D32*0.00005</f>
+        <f t="shared" si="1"/>
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="U32" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.32500000000000001</v>
       </c>
       <c r="V32" s="10"/>
@@ -5455,41 +5475,41 @@
         <v>1068</v>
       </c>
       <c r="E33" s="14"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="56">
-        <f t="shared" si="1"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="34">
+        <f t="shared" si="3"/>
         <v>35.6</v>
       </c>
-      <c r="H33" s="56">
-        <f t="shared" si="2"/>
+      <c r="H33" s="34">
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="I33" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.16</v>
       </c>
       <c r="J33" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.6320000000000001</v>
       </c>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="42"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="48"/>
       <c r="R33" s="10"/>
       <c r="S33" s="11">
-        <f>D33*0.0002</f>
+        <f t="shared" si="0"/>
         <v>0.21360000000000001</v>
       </c>
       <c r="T33" s="11">
-        <f>D33*0.00005</f>
+        <f t="shared" si="1"/>
         <v>5.3400000000000003E-2</v>
       </c>
       <c r="U33" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.26700000000000002</v>
       </c>
       <c r="V33" s="10"/>
@@ -5506,57 +5526,57 @@
         <v>3</v>
       </c>
       <c r="D34" s="11">
-        <f t="shared" ref="D34:D40" si="15">B34*2</f>
+        <f t="shared" ref="D34:D40" si="17">B34*2</f>
         <v>930</v>
       </c>
       <c r="E34" s="14"/>
-      <c r="F34" s="55">
+      <c r="F34" s="54">
         <v>11</v>
       </c>
-      <c r="G34" s="56">
-        <f t="shared" si="1"/>
+      <c r="G34" s="34">
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="H34" s="56">
-        <f t="shared" si="2"/>
+      <c r="H34" s="34">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="I34" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.1999999999999993</v>
       </c>
       <c r="J34" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.44</v>
       </c>
-      <c r="K34" s="34">
-        <f t="shared" ref="K34" si="16">SUM(J34:J36)</f>
+      <c r="K34" s="38">
+        <f t="shared" ref="K34" si="18">SUM(J34:J36)</f>
         <v>3.7439999999999998</v>
       </c>
-      <c r="L34" s="34">
+      <c r="L34" s="38">
         <f>SUM(K34*0.26)</f>
         <v>0.97343999999999997</v>
       </c>
-      <c r="M34" s="39">
+      <c r="M34" s="40">
         <v>1</v>
       </c>
-      <c r="N34" s="47">
+      <c r="N34" s="41">
         <v>27.8</v>
       </c>
-      <c r="O34" s="36"/>
-      <c r="P34" s="34"/>
-      <c r="Q34" s="41"/>
+      <c r="O34" s="46"/>
+      <c r="P34" s="38"/>
+      <c r="Q34" s="47"/>
       <c r="R34" s="10"/>
       <c r="S34" s="11">
-        <f>D34*0.0002</f>
+        <f t="shared" si="0"/>
         <v>0.186</v>
       </c>
       <c r="T34" s="11">
-        <f>D34*0.00005</f>
+        <f t="shared" si="1"/>
         <v>4.65E-2</v>
       </c>
       <c r="U34" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.23249999999999998</v>
       </c>
       <c r="V34" s="10"/>
@@ -5573,45 +5593,45 @@
         <v>3</v>
       </c>
       <c r="D35" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>796</v>
       </c>
       <c r="E35" s="14"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="56">
-        <f t="shared" si="1"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="34">
+        <f t="shared" si="3"/>
         <v>26.533333333333335</v>
       </c>
-      <c r="H35" s="56">
-        <f t="shared" si="2"/>
+      <c r="H35" s="34">
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="I35" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.24</v>
       </c>
       <c r="J35" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.248</v>
       </c>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="48"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="34"/>
-      <c r="Q35" s="41"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="38"/>
+      <c r="Q35" s="47"/>
       <c r="R35" s="10"/>
       <c r="S35" s="11">
-        <f>D35*0.0002</f>
+        <f t="shared" si="0"/>
         <v>0.15920000000000001</v>
       </c>
       <c r="T35" s="11">
-        <f>D35*0.00005</f>
+        <f t="shared" si="1"/>
         <v>3.9800000000000002E-2</v>
       </c>
       <c r="U35" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.19900000000000001</v>
       </c>
       <c r="V35" s="10"/>
@@ -5628,45 +5648,45 @@
         <v>3</v>
       </c>
       <c r="D36" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>670</v>
       </c>
       <c r="E36" s="14"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="56">
-        <f t="shared" si="1"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="34">
+        <f t="shared" si="3"/>
         <v>22.333333333333332</v>
       </c>
-      <c r="H36" s="56">
-        <f t="shared" si="2"/>
+      <c r="H36" s="34">
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="I36" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.2799999999999994</v>
       </c>
       <c r="J36" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.0559999999999998</v>
       </c>
-      <c r="K36" s="40"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="40"/>
-      <c r="N36" s="49"/>
-      <c r="O36" s="38"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="42"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="45"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="48"/>
       <c r="R36" s="10"/>
       <c r="S36" s="11">
-        <f>D36*0.0002</f>
+        <f t="shared" si="0"/>
         <v>0.13400000000000001</v>
       </c>
       <c r="T36" s="11">
-        <f>D36*0.00005</f>
+        <f t="shared" si="1"/>
         <v>3.3500000000000002E-2</v>
       </c>
       <c r="U36" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.16750000000000001</v>
       </c>
       <c r="V36" s="10"/>
@@ -5683,65 +5703,65 @@
         <v>3</v>
       </c>
       <c r="D37" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>554</v>
       </c>
       <c r="E37" s="14"/>
-      <c r="F37" s="55">
+      <c r="F37" s="54">
         <v>12</v>
       </c>
-      <c r="G37" s="56">
-        <f t="shared" si="1"/>
+      <c r="G37" s="34">
+        <f t="shared" si="3"/>
         <v>18.466666666666665</v>
       </c>
-      <c r="H37" s="56">
-        <f t="shared" si="2"/>
+      <c r="H37" s="34">
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="I37" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.32</v>
       </c>
       <c r="J37" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.8640000000000001</v>
       </c>
-      <c r="K37" s="39">
+      <c r="K37" s="40">
         <f>SUM(J37:J40)</f>
         <v>2.4</v>
       </c>
-      <c r="L37" s="39">
+      <c r="L37" s="40">
         <f>SUM(K37*0.26)</f>
         <v>0.624</v>
       </c>
-      <c r="M37" s="39">
+      <c r="M37" s="40">
         <v>1</v>
       </c>
-      <c r="N37" s="47">
+      <c r="N37" s="41">
         <v>30</v>
       </c>
-      <c r="O37" s="36">
+      <c r="O37" s="46">
         <v>4</v>
       </c>
-      <c r="P37" s="39">
+      <c r="P37" s="40">
         <f>SUM((N37-10)*37.4)</f>
         <v>748</v>
       </c>
-      <c r="Q37" s="43">
+      <c r="Q37" s="49">
         <f>SUM(P37*M37)</f>
         <v>748</v>
       </c>
       <c r="R37" s="10"/>
       <c r="S37" s="11">
-        <f>D37*0.0002</f>
+        <f t="shared" si="0"/>
         <v>0.11080000000000001</v>
       </c>
       <c r="T37" s="11">
-        <f>D37*0.00005</f>
+        <f t="shared" si="1"/>
         <v>2.7700000000000002E-2</v>
       </c>
       <c r="U37" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.13850000000000001</v>
       </c>
       <c r="V37" s="10"/>
@@ -5758,45 +5778,45 @@
         <v>3</v>
       </c>
       <c r="D38" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>448</v>
       </c>
       <c r="E38" s="14"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="56">
-        <f t="shared" si="1"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="34">
+        <f t="shared" si="3"/>
         <v>14.933333333333334</v>
       </c>
-      <c r="H38" s="56">
-        <f t="shared" si="2"/>
+      <c r="H38" s="34">
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="I38" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.36</v>
       </c>
       <c r="J38" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.67199999999999993</v>
       </c>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="48"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="34"/>
-      <c r="Q38" s="41"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="44"/>
+      <c r="P38" s="38"/>
+      <c r="Q38" s="47"/>
       <c r="R38" s="10"/>
       <c r="S38" s="11">
-        <f>D38*0.0002</f>
+        <f t="shared" si="0"/>
         <v>8.9599999999999999E-2</v>
       </c>
       <c r="T38" s="11">
-        <f>D38*0.00005</f>
+        <f t="shared" si="1"/>
         <v>2.24E-2</v>
       </c>
       <c r="U38" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.112</v>
       </c>
       <c r="V38" s="10"/>
@@ -5813,45 +5833,45 @@
         <v>3</v>
       </c>
       <c r="D39" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>356</v>
       </c>
       <c r="E39" s="14"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="56">
-        <f t="shared" si="1"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="34">
+        <f t="shared" si="3"/>
         <v>11.866666666666667</v>
       </c>
-      <c r="H39" s="56">
-        <f t="shared" si="2"/>
+      <c r="H39" s="34">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="I39" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.4</v>
       </c>
       <c r="J39" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.48</v>
       </c>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="48"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="41"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="44"/>
+      <c r="P39" s="38"/>
+      <c r="Q39" s="47"/>
       <c r="R39" s="10"/>
       <c r="S39" s="11">
-        <f>D39*0.0002</f>
+        <f t="shared" si="0"/>
         <v>7.1199999999999999E-2</v>
       </c>
       <c r="T39" s="11">
-        <f>D39*0.00005</f>
+        <f t="shared" si="1"/>
         <v>1.78E-2</v>
       </c>
       <c r="U39" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.8999999999999996E-2</v>
       </c>
       <c r="V39" s="10"/>
@@ -5868,92 +5888,92 @@
         <v>3</v>
       </c>
       <c r="D40" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>280</v>
       </c>
       <c r="E40" s="14"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="56">
-        <f t="shared" si="1"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="34">
+        <f t="shared" si="3"/>
         <v>9.3333333333333339</v>
       </c>
-      <c r="H40" s="56">
-        <f t="shared" si="2"/>
+      <c r="H40" s="34">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="I40" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.92</v>
       </c>
       <c r="J40" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.38400000000000001</v>
       </c>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="49"/>
-      <c r="O40" s="38"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="42"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="43"/>
+      <c r="O40" s="45"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="48"/>
       <c r="R40" s="10"/>
       <c r="S40" s="11">
-        <f>D40*0.0002</f>
+        <f t="shared" si="0"/>
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="T40" s="11">
-        <f>D40*0.00005</f>
+        <f t="shared" si="1"/>
         <v>1.4E-2</v>
       </c>
       <c r="U40" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="V40" s="10"/>
       <c r="W40" s="10"/>
     </row>
     <row r="41" spans="1:23" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="50" t="s">
+      <c r="A41" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
       <c r="D41" s="12">
         <f>SUM(D4:D40)</f>
         <v>78854</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="57">
-        <f>SUM(G4:G40)</f>
+      <c r="G41" s="35">
+        <f t="shared" ref="G41:N41" si="19">SUM(G4:G40)</f>
         <v>2628.4666666666672</v>
       </c>
-      <c r="H41" s="57">
-        <f>SUM(H4:H40)</f>
+      <c r="H41" s="35">
+        <f t="shared" si="19"/>
         <v>2592</v>
       </c>
       <c r="I41" s="18">
-        <f>SUM(I4:I40)</f>
+        <f t="shared" si="19"/>
         <v>622.08000000000004</v>
       </c>
       <c r="J41" s="18">
-        <f>SUM(J4:J40)</f>
+        <f t="shared" si="19"/>
         <v>124.41600000000003</v>
       </c>
       <c r="K41" s="18">
-        <f>SUM(K4:K40)</f>
+        <f t="shared" si="19"/>
         <v>124.416</v>
       </c>
       <c r="L41" s="18">
-        <f>SUM(L4:L40)</f>
+        <f t="shared" si="19"/>
         <v>32.34816</v>
       </c>
       <c r="M41" s="20">
-        <f>SUM(M4:M40)</f>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
       <c r="N41" s="31">
-        <f>SUM(N4:N40)</f>
+        <f t="shared" si="19"/>
         <v>269.8</v>
       </c>
       <c r="O41" s="28"/>
@@ -5972,7 +5992,7 @@
         <v>3.942699999999999</v>
       </c>
       <c r="U41" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>19.713499999999996</v>
       </c>
       <c r="V41" s="10"/>
@@ -5994,19 +6014,19 @@
       <c r="N42" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="O42" s="34" t="s">
+      <c r="O42" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="P42" s="34"/>
+      <c r="P42" s="38"/>
       <c r="Q42" s="23">
         <f>SUM(Q41/1000)</f>
         <v>0.748</v>
       </c>
       <c r="R42" s="10"/>
-      <c r="S42" s="51" t="s">
+      <c r="S42" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="T42" s="51"/>
+      <c r="T42" s="37"/>
       <c r="U42" s="10">
         <v>2.4</v>
       </c>
@@ -6029,10 +6049,10 @@
       <c r="N43" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="O43" s="34" t="s">
+      <c r="O43" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="P43" s="34"/>
+      <c r="P43" s="38"/>
       <c r="Q43" s="23">
         <f>SUM(Q42*2)</f>
         <v>1.496</v>
@@ -6058,16 +6078,24 @@
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
+      <c r="I44" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K44" s="10">
+        <v>65.489999999999995</v>
+      </c>
+      <c r="L44" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="M44" s="10"/>
       <c r="N44" s="24"/>
-      <c r="O44" s="51" t="s">
+      <c r="O44" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="P44" s="51"/>
+      <c r="P44" s="37"/>
       <c r="Q44" s="24">
         <v>5</v>
       </c>
@@ -6093,8 +6121,12 @@
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="24"/>
+      <c r="I45" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J45" s="24" t="s">
+        <v>48</v>
+      </c>
       <c r="K45" s="24"/>
       <c r="L45" s="24"/>
       <c r="M45" s="24"/>
@@ -6128,15 +6160,23 @@
       <c r="D46" s="24">
         <v>1</v>
       </c>
-      <c r="E46" s="35" t="s">
+      <c r="E46" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="F46" s="35"/>
+      <c r="F46" s="53"/>
       <c r="G46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="24"/>
+      <c r="I46" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J46" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="K46" s="24">
+        <v>53.14</v>
+      </c>
+      <c r="L46" s="24" t="s">
+        <v>49</v>
+      </c>
       <c r="M46" s="24"/>
       <c r="N46" s="24"/>
       <c r="O46" s="10" t="s">
@@ -6166,10 +6206,10 @@
       <c r="D47" s="24">
         <v>1.5</v>
       </c>
-      <c r="E47" s="35" t="s">
+      <c r="E47" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="F47" s="35"/>
+      <c r="F47" s="53"/>
       <c r="G47" s="10"/>
       <c r="I47" s="10"/>
       <c r="J47" s="24"/>
@@ -6202,10 +6242,10 @@
       <c r="D48" s="24">
         <v>2.5</v>
       </c>
-      <c r="E48" s="35" t="s">
+      <c r="E48" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="F48" s="35"/>
+      <c r="F48" s="53"/>
       <c r="G48" s="10"/>
       <c r="I48" s="10"/>
       <c r="J48" s="24">
@@ -6231,10 +6271,10 @@
       <c r="D49" s="24">
         <v>4</v>
       </c>
-      <c r="E49" s="35" t="s">
+      <c r="E49" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="F49" s="35"/>
+      <c r="F49" s="53"/>
       <c r="G49" s="10">
         <f>37.4*60</f>
         <v>2244</v>
@@ -6260,10 +6300,10 @@
       <c r="D50" s="24">
         <v>6</v>
       </c>
-      <c r="E50" s="35" t="s">
+      <c r="E50" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="F50" s="35"/>
+      <c r="F50" s="53"/>
       <c r="G50" s="10"/>
       <c r="I50" s="10"/>
       <c r="J50" s="24"/>
@@ -6301,6 +6341,96 @@
     </row>
   </sheetData>
   <mergeCells count="107">
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="Q37:Q40"/>
+    <mergeCell ref="Q7:Q9"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="L10:L12"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="N10:N12"/>
+    <mergeCell ref="O10:O12"/>
+    <mergeCell ref="P10:P12"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="O7:O9"/>
+    <mergeCell ref="P7:P9"/>
+    <mergeCell ref="Q13:Q15"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="L16:L18"/>
+    <mergeCell ref="M16:M18"/>
+    <mergeCell ref="N16:N18"/>
+    <mergeCell ref="O16:O18"/>
+    <mergeCell ref="P16:P18"/>
+    <mergeCell ref="Q10:Q12"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="M13:M15"/>
+    <mergeCell ref="N13:N15"/>
+    <mergeCell ref="O13:O15"/>
+    <mergeCell ref="P13:P15"/>
+    <mergeCell ref="Q19:Q21"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="L22:L24"/>
+    <mergeCell ref="M22:M24"/>
+    <mergeCell ref="N22:N24"/>
+    <mergeCell ref="O22:O24"/>
+    <mergeCell ref="P22:P24"/>
+    <mergeCell ref="Q16:Q18"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="L19:L21"/>
+    <mergeCell ref="M19:M21"/>
+    <mergeCell ref="N19:N21"/>
+    <mergeCell ref="O19:O21"/>
+    <mergeCell ref="P19:P21"/>
+    <mergeCell ref="Q25:Q27"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="K28:K30"/>
+    <mergeCell ref="L28:L30"/>
+    <mergeCell ref="M28:M30"/>
+    <mergeCell ref="N28:N30"/>
+    <mergeCell ref="O28:O30"/>
+    <mergeCell ref="P28:P30"/>
+    <mergeCell ref="Q22:Q24"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="O25:O27"/>
+    <mergeCell ref="P25:P27"/>
+    <mergeCell ref="Q31:Q33"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="K34:K36"/>
+    <mergeCell ref="L34:L36"/>
+    <mergeCell ref="M34:M36"/>
+    <mergeCell ref="N34:N36"/>
+    <mergeCell ref="O34:O36"/>
+    <mergeCell ref="P34:P36"/>
+    <mergeCell ref="Q28:Q30"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="K31:K33"/>
+    <mergeCell ref="L31:L33"/>
+    <mergeCell ref="M31:M33"/>
+    <mergeCell ref="N31:N33"/>
+    <mergeCell ref="O31:O33"/>
+    <mergeCell ref="P31:P33"/>
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="O44:P44"/>
     <mergeCell ref="O43:P43"/>
@@ -6317,97 +6447,7 @@
     <mergeCell ref="N37:N40"/>
     <mergeCell ref="O37:O40"/>
     <mergeCell ref="P37:P40"/>
-    <mergeCell ref="Q31:Q33"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="K34:K36"/>
-    <mergeCell ref="L34:L36"/>
-    <mergeCell ref="M34:M36"/>
-    <mergeCell ref="N34:N36"/>
-    <mergeCell ref="O34:O36"/>
-    <mergeCell ref="P34:P36"/>
-    <mergeCell ref="Q28:Q30"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="K31:K33"/>
-    <mergeCell ref="L31:L33"/>
-    <mergeCell ref="M31:M33"/>
-    <mergeCell ref="N31:N33"/>
-    <mergeCell ref="O31:O33"/>
-    <mergeCell ref="P31:P33"/>
-    <mergeCell ref="Q25:Q27"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="K28:K30"/>
-    <mergeCell ref="L28:L30"/>
-    <mergeCell ref="M28:M30"/>
-    <mergeCell ref="N28:N30"/>
-    <mergeCell ref="O28:O30"/>
-    <mergeCell ref="P28:P30"/>
-    <mergeCell ref="Q22:Q24"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="N25:N27"/>
-    <mergeCell ref="O25:O27"/>
-    <mergeCell ref="P25:P27"/>
-    <mergeCell ref="Q19:Q21"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="K22:K24"/>
-    <mergeCell ref="L22:L24"/>
-    <mergeCell ref="M22:M24"/>
-    <mergeCell ref="N22:N24"/>
-    <mergeCell ref="O22:O24"/>
-    <mergeCell ref="P22:P24"/>
-    <mergeCell ref="Q16:Q18"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="L19:L21"/>
-    <mergeCell ref="M19:M21"/>
-    <mergeCell ref="N19:N21"/>
-    <mergeCell ref="O19:O21"/>
-    <mergeCell ref="P19:P21"/>
-    <mergeCell ref="Q13:Q15"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="L16:L18"/>
-    <mergeCell ref="M16:M18"/>
-    <mergeCell ref="N16:N18"/>
-    <mergeCell ref="O16:O18"/>
-    <mergeCell ref="P16:P18"/>
-    <mergeCell ref="Q10:Q12"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="M13:M15"/>
-    <mergeCell ref="N13:N15"/>
-    <mergeCell ref="O13:O15"/>
-    <mergeCell ref="P13:P15"/>
-    <mergeCell ref="Q7:Q9"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="L10:L12"/>
-    <mergeCell ref="M10:M12"/>
-    <mergeCell ref="N10:N12"/>
-    <mergeCell ref="O10:O12"/>
-    <mergeCell ref="P10:P12"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="N7:N9"/>
-    <mergeCell ref="O7:O9"/>
-    <mergeCell ref="P7:P9"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="Q37:Q40"/>
     <mergeCell ref="O42:P42"/>
-    <mergeCell ref="S42:T42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
